--- a/document/Plan.xlsx
+++ b/document/Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
   <si>
     <t>Sub-Objectives</t>
   </si>
@@ -539,21 +539,47 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -563,30 +589,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -635,33 +656,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AC76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,107 +1231,107 @@
   <sheetData>
     <row r="1" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="53" t="s">
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
       <c r="AA2" s="9"/>
-      <c r="AB2" s="53" t="s">
+      <c r="AB2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="54"/>
+      <c r="AC2" s="55"/>
     </row>
     <row r="3" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="50"/>
       <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="57" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="58"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="62"/>
     </row>
     <row r="4" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="55" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="41" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="44" t="s">
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="46"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="58"/>
     </row>
     <row r="5" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
@@ -1838,16 +1838,16 @@
       <c r="D19" s="1"/>
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="84" t="s">
+      <c r="G19" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
       <c r="O19" s="37"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="21"/>
@@ -1869,16 +1869,16 @@
       <c r="D20" s="1"/>
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="85" t="s">
+      <c r="G20" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
       <c r="O20" s="37"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="21"/>
@@ -1900,16 +1900,16 @@
       <c r="D21" s="1"/>
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="85" t="s">
+      <c r="G21" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
       <c r="O21" s="37"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="21"/>
@@ -1931,16 +1931,16 @@
       <c r="D22" s="1"/>
       <c r="E22" s="5"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="85" t="s">
+      <c r="G22" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
       <c r="O22" s="37"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="21"/>
@@ -1991,16 +1991,16 @@
       <c r="D24" s="1"/>
       <c r="E24" s="5"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="83" t="s">
+      <c r="G24" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
       <c r="O24" s="37"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="19"/>
@@ -2022,16 +2022,16 @@
       <c r="D25" s="1"/>
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="83" t="s">
+      <c r="G25" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
       <c r="O25" s="37"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="19"/>
@@ -2053,16 +2053,16 @@
       <c r="D26" s="1"/>
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="83" t="s">
+      <c r="G26" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
       <c r="O26" s="37"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="19"/>
@@ -2084,16 +2084,16 @@
       <c r="D27" s="1"/>
       <c r="E27" s="5"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="83" t="s">
+      <c r="G27" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
       <c r="O27" s="37"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="19"/>
@@ -2144,16 +2144,16 @@
       <c r="D29" s="1"/>
       <c r="E29" s="5"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="83" t="s">
+      <c r="G29" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
       <c r="O29" s="37"/>
       <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
@@ -2175,16 +2175,16 @@
       <c r="D30" s="1"/>
       <c r="E30" s="5"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="83" t="s">
+      <c r="G30" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
       <c r="O30" s="37"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
@@ -2206,16 +2206,16 @@
       <c r="D31" s="1"/>
       <c r="E31" s="5"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="82" t="s">
+      <c r="G31" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
       <c r="O31" s="37"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
@@ -2237,16 +2237,16 @@
       <c r="D32" s="1"/>
       <c r="E32" s="5"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="83" t="s">
+      <c r="G32" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
       <c r="O32" s="37"/>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
@@ -2326,16 +2326,16 @@
       <c r="D35" s="1"/>
       <c r="E35" s="5"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="84" t="s">
+      <c r="G35" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
       <c r="O35" s="37"/>
       <c r="P35" s="17"/>
       <c r="Q35" s="19"/>
@@ -2386,16 +2386,16 @@
       <c r="D37" s="1"/>
       <c r="E37" s="5"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="85" t="s">
+      <c r="G37" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
-      <c r="N37" s="85"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
       <c r="O37" s="37"/>
       <c r="P37" s="17"/>
       <c r="Q37" s="19"/>
@@ -2417,16 +2417,16 @@
       <c r="D38" s="1"/>
       <c r="E38" s="5"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="75" t="s">
+      <c r="G38" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
       <c r="O38" s="37"/>
       <c r="P38" s="17"/>
       <c r="Q38" s="19"/>
@@ -2448,16 +2448,16 @@
       <c r="D39" s="1"/>
       <c r="E39" s="5"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="75" t="s">
+      <c r="G39" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
       <c r="O39" s="37"/>
       <c r="P39" s="17"/>
       <c r="Q39" s="19"/>
@@ -2479,16 +2479,16 @@
       <c r="D40" s="1"/>
       <c r="E40" s="5"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="75" t="s">
+      <c r="G40" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
       <c r="O40" s="37"/>
       <c r="P40" s="17"/>
       <c r="Q40" s="19"/>
@@ -2510,16 +2510,16 @@
       <c r="D41" s="1"/>
       <c r="E41" s="5"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="75" t="s">
+      <c r="G41" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
       <c r="O41" s="37"/>
       <c r="P41" s="17"/>
       <c r="Q41" s="19"/>
@@ -2541,16 +2541,16 @@
       <c r="D42" s="1"/>
       <c r="E42" s="5"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="75" t="s">
+      <c r="G42" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
       <c r="O42" s="37"/>
       <c r="P42" s="17"/>
       <c r="Q42" s="19"/>
@@ -2601,16 +2601,16 @@
       <c r="D44" s="1"/>
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="75" t="s">
+      <c r="G44" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
       <c r="O44" s="37"/>
       <c r="P44" s="17"/>
       <c r="Q44" s="19"/>
@@ -2663,16 +2663,16 @@
       <c r="D46" s="1"/>
       <c r="E46" s="5"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="75" t="s">
+      <c r="G46" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
-      <c r="N46" s="75"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
       <c r="O46" s="37"/>
       <c r="P46" s="17"/>
       <c r="Q46" s="19"/>
@@ -2694,16 +2694,16 @@
       <c r="D47" s="1"/>
       <c r="E47" s="5"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="75" t="s">
+      <c r="G47" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="75"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
       <c r="O47" s="37"/>
       <c r="P47" s="17"/>
       <c r="Q47" s="19"/>
@@ -3235,11 +3235,15 @@
       <c r="V64" s="17"/>
       <c r="W64" s="17"/>
       <c r="X64" s="35"/>
-      <c r="Y64" s="32"/>
+      <c r="Y64" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="Z64" s="27"/>
       <c r="AA64" s="27"/>
       <c r="AB64" s="27"/>
-      <c r="AC64" s="28"/>
+      <c r="AC64" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="65" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C65" s="4"/>
@@ -3266,11 +3270,15 @@
       <c r="V65" s="17"/>
       <c r="W65" s="17"/>
       <c r="X65" s="35"/>
-      <c r="Y65" s="32"/>
+      <c r="Y65" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="Z65" s="27"/>
       <c r="AA65" s="27"/>
       <c r="AB65" s="27"/>
-      <c r="AC65" s="28"/>
+      <c r="AC65" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="66" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C66" s="4"/>
@@ -3428,182 +3436,182 @@
       </c>
     </row>
     <row r="71" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C71" s="59" t="s">
+      <c r="C71" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="62" t="s">
+      <c r="D71" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="65" t="s">
+      <c r="E71" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="47"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="48"/>
-      <c r="K71" s="48"/>
-      <c r="L71" s="48"/>
-      <c r="M71" s="48"/>
-      <c r="N71" s="48"/>
-      <c r="O71" s="80">
+      <c r="F71" s="46"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="52">
         <v>43969</v>
       </c>
-      <c r="P71" s="39">
+      <c r="P71" s="42">
         <v>43976</v>
       </c>
-      <c r="Q71" s="39">
+      <c r="Q71" s="42">
         <v>43983</v>
       </c>
-      <c r="R71" s="39">
+      <c r="R71" s="42">
         <v>43990</v>
       </c>
-      <c r="S71" s="39">
+      <c r="S71" s="42">
         <v>43997</v>
       </c>
-      <c r="T71" s="39">
+      <c r="T71" s="42">
         <v>44004</v>
       </c>
-      <c r="U71" s="39">
+      <c r="U71" s="42">
         <v>44011</v>
       </c>
-      <c r="V71" s="39">
+      <c r="V71" s="42">
         <v>44018</v>
       </c>
-      <c r="W71" s="39">
+      <c r="W71" s="42">
         <v>44025</v>
       </c>
-      <c r="X71" s="76">
+      <c r="X71" s="84">
         <v>44032</v>
       </c>
-      <c r="Y71" s="68" t="s">
+      <c r="Y71" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="Z71" s="69"/>
-      <c r="AA71" s="69"/>
-      <c r="AB71" s="69"/>
-      <c r="AC71" s="70"/>
+      <c r="Z71" s="78"/>
+      <c r="AA71" s="78"/>
+      <c r="AB71" s="78"/>
+      <c r="AC71" s="79"/>
     </row>
     <row r="72" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C72" s="60"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="78"/>
-      <c r="G72" s="79"/>
-      <c r="H72" s="79"/>
-      <c r="I72" s="79"/>
-      <c r="J72" s="79"/>
-      <c r="K72" s="79"/>
-      <c r="L72" s="79"/>
-      <c r="M72" s="79"/>
-      <c r="N72" s="79"/>
-      <c r="O72" s="80"/>
-      <c r="P72" s="39"/>
-      <c r="Q72" s="39"/>
-      <c r="R72" s="39"/>
-      <c r="S72" s="39"/>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
-      <c r="W72" s="39"/>
-      <c r="X72" s="76"/>
-      <c r="Y72" s="71"/>
-      <c r="Z72" s="69"/>
-      <c r="AA72" s="69"/>
-      <c r="AB72" s="69"/>
-      <c r="AC72" s="70"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="49"/>
+      <c r="O72" s="52"/>
+      <c r="P72" s="42"/>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="42"/>
+      <c r="S72" s="42"/>
+      <c r="T72" s="42"/>
+      <c r="U72" s="42"/>
+      <c r="V72" s="42"/>
+      <c r="W72" s="42"/>
+      <c r="X72" s="84"/>
+      <c r="Y72" s="80"/>
+      <c r="Z72" s="78"/>
+      <c r="AA72" s="78"/>
+      <c r="AB72" s="78"/>
+      <c r="AC72" s="79"/>
     </row>
     <row r="73" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C73" s="60"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="78"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="79"/>
-      <c r="J73" s="79"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="79"/>
-      <c r="N73" s="79"/>
-      <c r="O73" s="80"/>
-      <c r="P73" s="39"/>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="39"/>
-      <c r="S73" s="39"/>
-      <c r="T73" s="39"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="39"/>
-      <c r="W73" s="39"/>
-      <c r="X73" s="76"/>
-      <c r="Y73" s="71"/>
-      <c r="Z73" s="69"/>
-      <c r="AA73" s="69"/>
-      <c r="AB73" s="69"/>
-      <c r="AC73" s="70"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="49"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="49"/>
+      <c r="M73" s="49"/>
+      <c r="N73" s="49"/>
+      <c r="O73" s="52"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="42"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="42"/>
+      <c r="V73" s="42"/>
+      <c r="W73" s="42"/>
+      <c r="X73" s="84"/>
+      <c r="Y73" s="80"/>
+      <c r="Z73" s="78"/>
+      <c r="AA73" s="78"/>
+      <c r="AB73" s="78"/>
+      <c r="AC73" s="79"/>
     </row>
     <row r="74" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C74" s="60"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="79"/>
-      <c r="H74" s="79"/>
-      <c r="I74" s="79"/>
-      <c r="J74" s="79"/>
-      <c r="K74" s="79"/>
-      <c r="L74" s="79"/>
-      <c r="M74" s="79"/>
-      <c r="N74" s="79"/>
-      <c r="O74" s="80"/>
-      <c r="P74" s="39"/>
-      <c r="Q74" s="39"/>
-      <c r="R74" s="39"/>
-      <c r="S74" s="39"/>
-      <c r="T74" s="39"/>
-      <c r="U74" s="39"/>
-      <c r="V74" s="39"/>
-      <c r="W74" s="39"/>
-      <c r="X74" s="76"/>
-      <c r="Y74" s="71"/>
-      <c r="Z74" s="69"/>
-      <c r="AA74" s="69"/>
-      <c r="AB74" s="69"/>
-      <c r="AC74" s="70"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49"/>
+      <c r="O74" s="52"/>
+      <c r="P74" s="42"/>
+      <c r="Q74" s="42"/>
+      <c r="R74" s="42"/>
+      <c r="S74" s="42"/>
+      <c r="T74" s="42"/>
+      <c r="U74" s="42"/>
+      <c r="V74" s="42"/>
+      <c r="W74" s="42"/>
+      <c r="X74" s="84"/>
+      <c r="Y74" s="80"/>
+      <c r="Z74" s="78"/>
+      <c r="AA74" s="78"/>
+      <c r="AB74" s="78"/>
+      <c r="AC74" s="79"/>
     </row>
     <row r="75" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C75" s="60"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="79"/>
-      <c r="I75" s="79"/>
-      <c r="J75" s="79"/>
-      <c r="K75" s="79"/>
-      <c r="L75" s="79"/>
-      <c r="M75" s="79"/>
-      <c r="N75" s="79"/>
-      <c r="O75" s="80"/>
-      <c r="P75" s="39"/>
-      <c r="Q75" s="39"/>
-      <c r="R75" s="39"/>
-      <c r="S75" s="39"/>
-      <c r="T75" s="39"/>
-      <c r="U75" s="39"/>
-      <c r="V75" s="39"/>
-      <c r="W75" s="39"/>
-      <c r="X75" s="76"/>
-      <c r="Y75" s="71"/>
-      <c r="Z75" s="69"/>
-      <c r="AA75" s="69"/>
-      <c r="AB75" s="69"/>
-      <c r="AC75" s="70"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="49"/>
+      <c r="O75" s="52"/>
+      <c r="P75" s="42"/>
+      <c r="Q75" s="42"/>
+      <c r="R75" s="42"/>
+      <c r="S75" s="42"/>
+      <c r="T75" s="42"/>
+      <c r="U75" s="42"/>
+      <c r="V75" s="42"/>
+      <c r="W75" s="42"/>
+      <c r="X75" s="84"/>
+      <c r="Y75" s="80"/>
+      <c r="Z75" s="78"/>
+      <c r="AA75" s="78"/>
+      <c r="AB75" s="78"/>
+      <c r="AC75" s="79"/>
     </row>
     <row r="76" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="61"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="67"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="76"/>
       <c r="F76" s="50"/>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
@@ -3613,57 +3621,24 @@
       <c r="L76" s="51"/>
       <c r="M76" s="51"/>
       <c r="N76" s="51"/>
-      <c r="O76" s="81"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
-      <c r="T76" s="40"/>
-      <c r="U76" s="40"/>
-      <c r="V76" s="40"/>
-      <c r="W76" s="40"/>
-      <c r="X76" s="77"/>
-      <c r="Y76" s="72"/>
-      <c r="Z76" s="73"/>
-      <c r="AA76" s="73"/>
-      <c r="AB76" s="73"/>
-      <c r="AC76" s="74"/>
+      <c r="O76" s="53"/>
+      <c r="P76" s="43"/>
+      <c r="Q76" s="43"/>
+      <c r="R76" s="43"/>
+      <c r="S76" s="43"/>
+      <c r="T76" s="43"/>
+      <c r="U76" s="43"/>
+      <c r="V76" s="43"/>
+      <c r="W76" s="43"/>
+      <c r="X76" s="85"/>
+      <c r="Y76" s="81"/>
+      <c r="Z76" s="82"/>
+      <c r="AA76" s="82"/>
+      <c r="AB76" s="82"/>
+      <c r="AC76" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="G37:N37"/>
-    <mergeCell ref="G38:N38"/>
-    <mergeCell ref="G35:N35"/>
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="U71:U76"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="G24:N24"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="G26:N26"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="G40:N40"/>
-    <mergeCell ref="G41:N41"/>
-    <mergeCell ref="G47:N47"/>
-    <mergeCell ref="G32:N32"/>
-    <mergeCell ref="F71:N76"/>
-    <mergeCell ref="O71:O76"/>
-    <mergeCell ref="R71:R76"/>
-    <mergeCell ref="S71:S76"/>
-    <mergeCell ref="T71:T76"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="Y4:AC4"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="F3:AC3"/>
-    <mergeCell ref="Q71:Q76"/>
-    <mergeCell ref="P71:P76"/>
-    <mergeCell ref="O4:X4"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="O2:Z2"/>
@@ -3677,6 +3652,39 @@
     <mergeCell ref="V71:V76"/>
     <mergeCell ref="W71:W76"/>
     <mergeCell ref="X71:X76"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="Y4:AC4"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="F3:AC3"/>
+    <mergeCell ref="O4:X4"/>
+    <mergeCell ref="G32:N32"/>
+    <mergeCell ref="F71:N76"/>
+    <mergeCell ref="O71:O76"/>
+    <mergeCell ref="R71:R76"/>
+    <mergeCell ref="S71:S76"/>
+    <mergeCell ref="Q71:Q76"/>
+    <mergeCell ref="P71:P76"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="G24:N24"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="G30:N30"/>
+    <mergeCell ref="G37:N37"/>
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="G35:N35"/>
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="U71:U76"/>
+    <mergeCell ref="G40:N40"/>
+    <mergeCell ref="G41:N41"/>
+    <mergeCell ref="G47:N47"/>
+    <mergeCell ref="T71:T76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/document/Plan.xlsx
+++ b/document/Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
   <si>
     <t xml:space="preserve">Project Manager: </t>
   </si>
@@ -592,6 +592,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -616,118 +723,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1272,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AC76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y71" sqref="Y71:AC76"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1292,107 +1292,107 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:29">
-      <c r="C2" s="65"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="33" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34" t="s">
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
       <c r="AA2" s="11"/>
-      <c r="AB2" s="34" t="s">
+      <c r="AB2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="35"/>
+      <c r="AC2" s="76"/>
     </row>
     <row r="3" spans="3:29">
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="36" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="37"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="78"/>
     </row>
     <row r="4" spans="3:29">
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41" t="s">
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="42" t="s">
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="38" t="s">
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="40"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="81"/>
     </row>
     <row r="5" spans="3:29">
       <c r="C5" s="3"/>
@@ -1661,8 +1661,8 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="15"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
@@ -1807,8 +1807,8 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="15"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
       <c r="T16" s="16"/>
@@ -1844,8 +1844,8 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="15"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
       <c r="T17" s="16"/>
@@ -1888,27 +1888,27 @@
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="20"/>
-      <c r="Y18" s="87"/>
+      <c r="Y18" s="40"/>
       <c r="Z18" s="27"/>
-      <c r="AA18" s="85"/>
+      <c r="AA18" s="38"/>
       <c r="AB18" s="27"/>
-      <c r="AC18" s="86"/>
+      <c r="AC18" s="39"/>
     </row>
     <row r="19" spans="3:29">
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
       <c r="O19" s="15"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
@@ -1920,12 +1920,12 @@
       <c r="W19" s="16"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="26"/>
-      <c r="Z19" s="85"/>
-      <c r="AA19" s="85" t="s">
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38" t="s">
         <v>9</v>
       </c>
       <c r="AB19" s="27"/>
-      <c r="AC19" s="86" t="s">
+      <c r="AC19" s="39" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1934,19 +1934,19 @@
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
       <c r="O20" s="15"/>
       <c r="P20" s="16"/>
-      <c r="Q20" s="82"/>
+      <c r="Q20" s="35"/>
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
@@ -1954,10 +1954,14 @@
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="20"/>
-      <c r="Y20" s="26"/>
+      <c r="Y20" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="Z20" s="27"/>
       <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
+      <c r="AB20" s="27" t="s">
+        <v>9</v>
+      </c>
       <c r="AC20" s="28"/>
     </row>
     <row r="21" spans="3:29">
@@ -1965,19 +1969,19 @@
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
       <c r="O21" s="15"/>
       <c r="P21" s="16"/>
-      <c r="Q21" s="82"/>
+      <c r="Q21" s="35"/>
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
       <c r="T21" s="16"/>
@@ -1985,10 +1989,14 @@
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
       <c r="X21" s="20"/>
-      <c r="Y21" s="26"/>
+      <c r="Y21" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="Z21" s="27"/>
       <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
+      <c r="AB21" s="27" t="s">
+        <v>9</v>
+      </c>
       <c r="AC21" s="28"/>
     </row>
     <row r="22" spans="3:29">
@@ -1996,16 +2004,16 @@
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
       <c r="O22" s="15"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
@@ -2016,15 +2024,15 @@
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
       <c r="X22" s="20"/>
-      <c r="Y22" s="87" t="s">
+      <c r="Y22" s="40" t="s">
         <v>10</v>
       </c>
       <c r="Z22" s="27"/>
       <c r="AA22" s="27"/>
-      <c r="AB22" s="85" t="s">
+      <c r="AB22" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AC22" s="86"/>
+      <c r="AC22" s="39"/>
     </row>
     <row r="23" spans="3:29">
       <c r="C23" s="3"/>
@@ -2060,16 +2068,16 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="47" t="s">
+      <c r="G24" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
       <c r="O24" s="15"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="17"/>
@@ -2080,7 +2088,7 @@
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
       <c r="X24" s="20"/>
-      <c r="Y24" s="87" t="s">
+      <c r="Y24" s="40" t="s">
         <v>9</v>
       </c>
       <c r="Z24" s="27"/>
@@ -2093,16 +2101,16 @@
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="47" t="s">
+      <c r="G25" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
       <c r="O25" s="15"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
@@ -2113,7 +2121,7 @@
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
       <c r="X25" s="20"/>
-      <c r="Y25" s="87" t="s">
+      <c r="Y25" s="40" t="s">
         <v>9</v>
       </c>
       <c r="Z25" s="27"/>
@@ -2126,28 +2134,32 @@
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
       <c r="O26" s="15"/>
       <c r="P26" s="16"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="81"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
       <c r="W26" s="16"/>
       <c r="X26" s="20"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="27"/>
+      <c r="Y26" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z26" s="27" t="s">
+        <v>9</v>
+      </c>
       <c r="AA26" s="27"/>
       <c r="AB26" s="27"/>
       <c r="AC26" s="28"/>
@@ -2157,28 +2169,32 @@
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
       <c r="O27" s="15"/>
       <c r="P27" s="16"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
       <c r="X27" s="20"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="27"/>
+      <c r="Y27" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z27" s="27" t="s">
+        <v>9</v>
+      </c>
       <c r="AA27" s="27"/>
       <c r="AB27" s="27"/>
       <c r="AC27" s="28"/>
@@ -2217,29 +2233,33 @@
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
       <c r="O29" s="15"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
       <c r="T29" s="16"/>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
       <c r="X29" s="20"/>
-      <c r="Y29" s="26"/>
+      <c r="Y29" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
+      <c r="AA29" s="27" t="s">
+        <v>9</v>
+      </c>
       <c r="AB29" s="27"/>
       <c r="AC29" s="28"/>
     </row>
@@ -2248,29 +2268,33 @@
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
       <c r="O30" s="15"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
       <c r="T30" s="16"/>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
       <c r="X30" s="20"/>
-      <c r="Y30" s="26"/>
+      <c r="Y30" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
+      <c r="AA30" s="27" t="s">
+        <v>9</v>
+      </c>
       <c r="AB30" s="27"/>
       <c r="AC30" s="28"/>
     </row>
@@ -2279,21 +2303,21 @@
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="48" t="s">
+      <c r="G31" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
       <c r="O31" s="15"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
-      <c r="R31" s="83"/>
-      <c r="S31" s="83"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
       <c r="V31" s="16"/>
@@ -2310,21 +2334,21 @@
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="47" t="s">
+      <c r="G32" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
       <c r="O32" s="15"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
-      <c r="R32" s="83"/>
-      <c r="S32" s="83"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
@@ -2399,21 +2423,21 @@
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="45" t="s">
+      <c r="G35" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
       <c r="O35" s="15"/>
       <c r="P35" s="16"/>
-      <c r="Q35" s="81"/>
-      <c r="R35" s="81"/>
-      <c r="S35" s="81"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
       <c r="T35" s="16"/>
       <c r="U35" s="16"/>
       <c r="V35" s="16"/>
@@ -2459,16 +2483,16 @@
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
       <c r="O37" s="15"/>
       <c r="P37" s="16"/>
       <c r="Q37" s="17"/>
@@ -2479,10 +2503,10 @@
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
       <c r="X37" s="20"/>
-      <c r="Y37" s="87" t="s">
+      <c r="Y37" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="Z37" s="85" t="s">
+      <c r="Z37" s="38" t="s">
         <v>9</v>
       </c>
       <c r="AA37" s="27"/>
@@ -2494,16 +2518,16 @@
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="49" t="s">
+      <c r="G38" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
       <c r="O38" s="15"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="17"/>
@@ -2514,10 +2538,10 @@
       <c r="V38" s="16"/>
       <c r="W38" s="16"/>
       <c r="X38" s="20"/>
-      <c r="Y38" s="87" t="s">
+      <c r="Y38" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="Z38" s="85" t="s">
+      <c r="Z38" s="38" t="s">
         <v>9</v>
       </c>
       <c r="AA38" s="27"/>
@@ -2529,16 +2553,16 @@
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="49" t="s">
+      <c r="G39" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
       <c r="O39" s="15"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
@@ -2549,10 +2573,10 @@
       <c r="V39" s="16"/>
       <c r="W39" s="16"/>
       <c r="X39" s="20"/>
-      <c r="Y39" s="87" t="s">
+      <c r="Y39" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="Z39" s="85" t="s">
+      <c r="Z39" s="38" t="s">
         <v>9</v>
       </c>
       <c r="AA39" s="27"/>
@@ -2564,22 +2588,22 @@
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="49" t="s">
+      <c r="G40" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
       <c r="O40" s="15"/>
       <c r="P40" s="16"/>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81"/>
-      <c r="S40" s="81"/>
-      <c r="T40" s="81"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
       <c r="U40" s="16"/>
       <c r="V40" s="16"/>
       <c r="W40" s="16"/>
@@ -2595,16 +2619,16 @@
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="49" t="s">
+      <c r="G41" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
       <c r="O41" s="15"/>
       <c r="P41" s="16"/>
       <c r="Q41" s="17"/>
@@ -2615,10 +2639,10 @@
       <c r="V41" s="16"/>
       <c r="W41" s="16"/>
       <c r="X41" s="20"/>
-      <c r="Y41" s="87" t="s">
+      <c r="Y41" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="Z41" s="85" t="s">
+      <c r="Z41" s="38" t="s">
         <v>9</v>
       </c>
       <c r="AA41" s="27"/>
@@ -2630,22 +2654,22 @@
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="49" t="s">
+      <c r="G42" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
       <c r="O42" s="15"/>
       <c r="P42" s="16"/>
-      <c r="Q42" s="81"/>
-      <c r="R42" s="81"/>
-      <c r="S42" s="81"/>
-      <c r="T42" s="81"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="16"/>
@@ -2690,23 +2714,23 @@
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="49" t="s">
+      <c r="G44" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
       <c r="O44" s="15"/>
       <c r="P44" s="16"/>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="81"/>
-      <c r="S44" s="81"/>
-      <c r="T44" s="81"/>
-      <c r="U44" s="84"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="37"/>
       <c r="V44" s="16"/>
       <c r="W44" s="16"/>
       <c r="X44" s="20"/>
@@ -2733,11 +2757,11 @@
       <c r="N45" s="4"/>
       <c r="O45" s="15"/>
       <c r="P45" s="16"/>
-      <c r="Q45" s="81"/>
-      <c r="R45" s="81"/>
-      <c r="S45" s="81"/>
-      <c r="T45" s="81"/>
-      <c r="U45" s="84"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="37"/>
       <c r="V45" s="16"/>
       <c r="W45" s="16"/>
       <c r="X45" s="20"/>
@@ -2752,23 +2776,23 @@
       <c r="D46" s="4"/>
       <c r="E46" s="5"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="49" t="s">
+      <c r="G46" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="60"/>
       <c r="O46" s="15"/>
       <c r="P46" s="16"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="81"/>
-      <c r="S46" s="81"/>
-      <c r="T46" s="81"/>
-      <c r="U46" s="84"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="37"/>
       <c r="V46" s="16"/>
       <c r="W46" s="16"/>
       <c r="X46" s="20"/>
@@ -2783,23 +2807,23 @@
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="49" t="s">
+      <c r="G47" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
       <c r="O47" s="15"/>
       <c r="P47" s="16"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="81"/>
-      <c r="S47" s="81"/>
-      <c r="T47" s="81"/>
-      <c r="U47" s="84"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="37"/>
       <c r="V47" s="16"/>
       <c r="W47" s="16"/>
       <c r="X47" s="20"/>
@@ -2826,11 +2850,11 @@
       <c r="N48" s="4"/>
       <c r="O48" s="15"/>
       <c r="P48" s="16"/>
-      <c r="Q48" s="81"/>
-      <c r="R48" s="81"/>
-      <c r="S48" s="81"/>
-      <c r="T48" s="81"/>
-      <c r="U48" s="84"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="37"/>
       <c r="V48" s="16"/>
       <c r="W48" s="16"/>
       <c r="X48" s="20"/>
@@ -2857,11 +2881,11 @@
       <c r="N49" s="4"/>
       <c r="O49" s="15"/>
       <c r="P49" s="16"/>
-      <c r="Q49" s="81"/>
-      <c r="R49" s="81"/>
-      <c r="S49" s="81"/>
-      <c r="T49" s="81"/>
-      <c r="U49" s="84"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="37"/>
       <c r="V49" s="16"/>
       <c r="W49" s="16"/>
       <c r="X49" s="20"/>
@@ -2917,7 +2941,7 @@
       <c r="N51" s="4"/>
       <c r="O51" s="15"/>
       <c r="P51" s="16"/>
-      <c r="Q51" s="81"/>
+      <c r="Q51" s="34"/>
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
       <c r="T51" s="13"/>
@@ -2948,7 +2972,7 @@
       <c r="N52" s="4"/>
       <c r="O52" s="15"/>
       <c r="P52" s="16"/>
-      <c r="Q52" s="81"/>
+      <c r="Q52" s="34"/>
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
       <c r="T52" s="13"/>
@@ -2979,7 +3003,7 @@
       <c r="N53" s="4"/>
       <c r="O53" s="15"/>
       <c r="P53" s="16"/>
-      <c r="Q53" s="81"/>
+      <c r="Q53" s="34"/>
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
       <c r="T53" s="13"/>
@@ -3010,7 +3034,7 @@
       <c r="N54" s="4"/>
       <c r="O54" s="15"/>
       <c r="P54" s="16"/>
-      <c r="Q54" s="81"/>
+      <c r="Q54" s="34"/>
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
       <c r="T54" s="13"/>
@@ -3041,7 +3065,7 @@
       <c r="N55" s="4"/>
       <c r="O55" s="15"/>
       <c r="P55" s="16"/>
-      <c r="Q55" s="81"/>
+      <c r="Q55" s="34"/>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
@@ -3072,7 +3096,7 @@
       <c r="N56" s="4"/>
       <c r="O56" s="15"/>
       <c r="P56" s="16"/>
-      <c r="Q56" s="81"/>
+      <c r="Q56" s="34"/>
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
       <c r="T56" s="13"/>
@@ -3103,7 +3127,7 @@
       <c r="N57" s="4"/>
       <c r="O57" s="15"/>
       <c r="P57" s="16"/>
-      <c r="Q57" s="81"/>
+      <c r="Q57" s="34"/>
       <c r="R57" s="13"/>
       <c r="S57" s="13"/>
       <c r="T57" s="13"/>
@@ -3225,8 +3249,8 @@
       <c r="N61" s="4"/>
       <c r="O61" s="15"/>
       <c r="P61" s="16"/>
-      <c r="Q61" s="81"/>
-      <c r="R61" s="81"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
       <c r="S61" s="13"/>
       <c r="T61" s="13"/>
       <c r="U61" s="13"/>
@@ -3258,10 +3282,10 @@
       <c r="P62" s="16"/>
       <c r="Q62" s="16"/>
       <c r="R62" s="13"/>
-      <c r="S62" s="81"/>
-      <c r="T62" s="81"/>
-      <c r="U62" s="84"/>
-      <c r="V62" s="84"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="34"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="37"/>
       <c r="W62" s="16"/>
       <c r="X62" s="20"/>
       <c r="Y62" s="26"/>
@@ -3525,209 +3549,243 @@
       </c>
     </row>
     <row r="71" spans="3:29">
-      <c r="C71" s="50" t="s">
+      <c r="C71" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="D71" s="53" t="s">
+      <c r="D71" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E71" s="56" t="s">
+      <c r="E71" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="F71" s="65"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="66"/>
-      <c r="J71" s="66"/>
-      <c r="K71" s="66"/>
-      <c r="L71" s="66"/>
-      <c r="M71" s="66"/>
-      <c r="N71" s="66"/>
-      <c r="O71" s="59">
+      <c r="F71" s="48"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="49"/>
+      <c r="O71" s="58">
         <v>43969</v>
       </c>
-      <c r="P71" s="61">
+      <c r="P71" s="54">
         <v>43976</v>
       </c>
-      <c r="Q71" s="61">
+      <c r="Q71" s="54">
         <v>43983</v>
       </c>
-      <c r="R71" s="61">
+      <c r="R71" s="54">
         <v>43990</v>
       </c>
-      <c r="S71" s="61">
+      <c r="S71" s="54">
         <v>43997</v>
       </c>
-      <c r="T71" s="61">
+      <c r="T71" s="54">
         <v>44004</v>
       </c>
-      <c r="U71" s="61">
+      <c r="U71" s="54">
         <v>44011</v>
       </c>
-      <c r="V71" s="61">
+      <c r="V71" s="54">
         <v>44018</v>
       </c>
-      <c r="W71" s="61">
+      <c r="W71" s="54">
         <v>44025</v>
       </c>
-      <c r="X71" s="63">
+      <c r="X71" s="56">
         <v>44032</v>
       </c>
-      <c r="Y71" s="71" t="s">
+      <c r="Y71" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="Z71" s="72"/>
-      <c r="AA71" s="72"/>
-      <c r="AB71" s="72"/>
-      <c r="AC71" s="73"/>
+      <c r="Z71" s="42"/>
+      <c r="AA71" s="42"/>
+      <c r="AB71" s="42"/>
+      <c r="AC71" s="43"/>
     </row>
     <row r="72" spans="3:29">
-      <c r="C72" s="51"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="78"/>
-      <c r="G72" s="79"/>
-      <c r="H72" s="79"/>
-      <c r="I72" s="79"/>
-      <c r="J72" s="79"/>
-      <c r="K72" s="79"/>
-      <c r="L72" s="79"/>
-      <c r="M72" s="79"/>
-      <c r="N72" s="79"/>
-      <c r="O72" s="59"/>
-      <c r="P72" s="61"/>
-      <c r="Q72" s="61"/>
-      <c r="R72" s="61"/>
-      <c r="S72" s="61"/>
-      <c r="T72" s="61"/>
-      <c r="U72" s="61"/>
-      <c r="V72" s="61"/>
-      <c r="W72" s="61"/>
-      <c r="X72" s="63"/>
-      <c r="Y72" s="74"/>
-      <c r="Z72" s="72"/>
-      <c r="AA72" s="72"/>
-      <c r="AB72" s="72"/>
-      <c r="AC72" s="73"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="68"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="51"/>
+      <c r="M72" s="51"/>
+      <c r="N72" s="51"/>
+      <c r="O72" s="58"/>
+      <c r="P72" s="54"/>
+      <c r="Q72" s="54"/>
+      <c r="R72" s="54"/>
+      <c r="S72" s="54"/>
+      <c r="T72" s="54"/>
+      <c r="U72" s="54"/>
+      <c r="V72" s="54"/>
+      <c r="W72" s="54"/>
+      <c r="X72" s="56"/>
+      <c r="Y72" s="44"/>
+      <c r="Z72" s="42"/>
+      <c r="AA72" s="42"/>
+      <c r="AB72" s="42"/>
+      <c r="AC72" s="43"/>
     </row>
     <row r="73" spans="3:29">
-      <c r="C73" s="51"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="57"/>
-      <c r="F73" s="78"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="79"/>
-      <c r="J73" s="79"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="79"/>
-      <c r="N73" s="79"/>
-      <c r="O73" s="59"/>
-      <c r="P73" s="61"/>
-      <c r="Q73" s="61"/>
-      <c r="R73" s="61"/>
-      <c r="S73" s="61"/>
-      <c r="T73" s="61"/>
-      <c r="U73" s="61"/>
-      <c r="V73" s="61"/>
-      <c r="W73" s="61"/>
-      <c r="X73" s="63"/>
-      <c r="Y73" s="74"/>
-      <c r="Z73" s="72"/>
-      <c r="AA73" s="72"/>
-      <c r="AB73" s="72"/>
-      <c r="AC73" s="73"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="68"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="51"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="58"/>
+      <c r="P73" s="54"/>
+      <c r="Q73" s="54"/>
+      <c r="R73" s="54"/>
+      <c r="S73" s="54"/>
+      <c r="T73" s="54"/>
+      <c r="U73" s="54"/>
+      <c r="V73" s="54"/>
+      <c r="W73" s="54"/>
+      <c r="X73" s="56"/>
+      <c r="Y73" s="44"/>
+      <c r="Z73" s="42"/>
+      <c r="AA73" s="42"/>
+      <c r="AB73" s="42"/>
+      <c r="AC73" s="43"/>
     </row>
     <row r="74" spans="3:29">
-      <c r="C74" s="51"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="79"/>
-      <c r="H74" s="79"/>
-      <c r="I74" s="79"/>
-      <c r="J74" s="79"/>
-      <c r="K74" s="79"/>
-      <c r="L74" s="79"/>
-      <c r="M74" s="79"/>
-      <c r="N74" s="79"/>
-      <c r="O74" s="59"/>
-      <c r="P74" s="61"/>
-      <c r="Q74" s="61"/>
-      <c r="R74" s="61"/>
-      <c r="S74" s="61"/>
-      <c r="T74" s="61"/>
-      <c r="U74" s="61"/>
-      <c r="V74" s="61"/>
-      <c r="W74" s="61"/>
-      <c r="X74" s="63"/>
-      <c r="Y74" s="74"/>
-      <c r="Z74" s="72"/>
-      <c r="AA74" s="72"/>
-      <c r="AB74" s="72"/>
-      <c r="AC74" s="73"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="51"/>
+      <c r="M74" s="51"/>
+      <c r="N74" s="51"/>
+      <c r="O74" s="58"/>
+      <c r="P74" s="54"/>
+      <c r="Q74" s="54"/>
+      <c r="R74" s="54"/>
+      <c r="S74" s="54"/>
+      <c r="T74" s="54"/>
+      <c r="U74" s="54"/>
+      <c r="V74" s="54"/>
+      <c r="W74" s="54"/>
+      <c r="X74" s="56"/>
+      <c r="Y74" s="44"/>
+      <c r="Z74" s="42"/>
+      <c r="AA74" s="42"/>
+      <c r="AB74" s="42"/>
+      <c r="AC74" s="43"/>
     </row>
     <row r="75" spans="3:29">
-      <c r="C75" s="51"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="57"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="79"/>
-      <c r="I75" s="79"/>
-      <c r="J75" s="79"/>
-      <c r="K75" s="79"/>
-      <c r="L75" s="79"/>
-      <c r="M75" s="79"/>
-      <c r="N75" s="79"/>
-      <c r="O75" s="59"/>
-      <c r="P75" s="61"/>
-      <c r="Q75" s="61"/>
-      <c r="R75" s="61"/>
-      <c r="S75" s="61"/>
-      <c r="T75" s="61"/>
-      <c r="U75" s="61"/>
-      <c r="V75" s="61"/>
-      <c r="W75" s="61"/>
-      <c r="X75" s="63"/>
-      <c r="Y75" s="74"/>
-      <c r="Z75" s="72"/>
-      <c r="AA75" s="72"/>
-      <c r="AB75" s="72"/>
-      <c r="AC75" s="73"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="51"/>
+      <c r="M75" s="51"/>
+      <c r="N75" s="51"/>
+      <c r="O75" s="58"/>
+      <c r="P75" s="54"/>
+      <c r="Q75" s="54"/>
+      <c r="R75" s="54"/>
+      <c r="S75" s="54"/>
+      <c r="T75" s="54"/>
+      <c r="U75" s="54"/>
+      <c r="V75" s="54"/>
+      <c r="W75" s="54"/>
+      <c r="X75" s="56"/>
+      <c r="Y75" s="44"/>
+      <c r="Z75" s="42"/>
+      <c r="AA75" s="42"/>
+      <c r="AB75" s="42"/>
+      <c r="AC75" s="43"/>
     </row>
     <row r="76" spans="3:29">
-      <c r="C76" s="52"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="69"/>
-      <c r="H76" s="69"/>
-      <c r="I76" s="69"/>
-      <c r="J76" s="69"/>
-      <c r="K76" s="69"/>
-      <c r="L76" s="69"/>
-      <c r="M76" s="69"/>
-      <c r="N76" s="69"/>
-      <c r="O76" s="60"/>
-      <c r="P76" s="62"/>
-      <c r="Q76" s="62"/>
-      <c r="R76" s="62"/>
-      <c r="S76" s="62"/>
-      <c r="T76" s="62"/>
-      <c r="U76" s="62"/>
-      <c r="V76" s="62"/>
-      <c r="W76" s="62"/>
-      <c r="X76" s="64"/>
-      <c r="Y76" s="75"/>
-      <c r="Z76" s="76"/>
-      <c r="AA76" s="76"/>
-      <c r="AB76" s="76"/>
-      <c r="AC76" s="77"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="53"/>
+      <c r="K76" s="53"/>
+      <c r="L76" s="53"/>
+      <c r="M76" s="53"/>
+      <c r="N76" s="53"/>
+      <c r="O76" s="59"/>
+      <c r="P76" s="55"/>
+      <c r="Q76" s="55"/>
+      <c r="R76" s="55"/>
+      <c r="S76" s="55"/>
+      <c r="T76" s="55"/>
+      <c r="U76" s="55"/>
+      <c r="V76" s="55"/>
+      <c r="W76" s="55"/>
+      <c r="X76" s="57"/>
+      <c r="Y76" s="45"/>
+      <c r="Z76" s="46"/>
+      <c r="AA76" s="46"/>
+      <c r="AB76" s="46"/>
+      <c r="AC76" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="F3:AC3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="O4:X4"/>
+    <mergeCell ref="Y4:AC4"/>
+    <mergeCell ref="C2:E3"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="G24:N24"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="G30:N30"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="G32:N32"/>
+    <mergeCell ref="G35:N35"/>
+    <mergeCell ref="G37:N37"/>
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="G40:N40"/>
+    <mergeCell ref="G41:N41"/>
+    <mergeCell ref="G42:N42"/>
+    <mergeCell ref="G44:N44"/>
+    <mergeCell ref="G46:N46"/>
+    <mergeCell ref="G47:N47"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="E71:E76"/>
     <mergeCell ref="Y71:AC76"/>
     <mergeCell ref="F71:N76"/>
     <mergeCell ref="T71:T76"/>
@@ -3740,40 +3798,6 @@
     <mergeCell ref="Q71:Q76"/>
     <mergeCell ref="R71:R76"/>
     <mergeCell ref="S71:S76"/>
-    <mergeCell ref="G46:N46"/>
-    <mergeCell ref="G47:N47"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="G40:N40"/>
-    <mergeCell ref="G41:N41"/>
-    <mergeCell ref="G42:N42"/>
-    <mergeCell ref="G44:N44"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="G32:N32"/>
-    <mergeCell ref="G35:N35"/>
-    <mergeCell ref="G37:N37"/>
-    <mergeCell ref="G38:N38"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="G26:N26"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="G24:N24"/>
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="F3:AC3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="O4:X4"/>
-    <mergeCell ref="Y4:AC4"/>
-    <mergeCell ref="C2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/document/Plan.xlsx
+++ b/document/Plan.xlsx
@@ -238,11 +238,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,10 +293,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,11 +339,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,10 +361,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,21 +414,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -369,75 +423,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,7 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,13 +475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,13 +493,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,25 +583,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,85 +607,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,13 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,6 +822,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -852,6 +848,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,15 +890,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -899,34 +904,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -944,130 +925,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,13 +1142,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1837,8 +1818,8 @@
   <sheetPr/>
   <dimension ref="C1:AC76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F37" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42:N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/document/Plan.xlsx
+++ b/document/Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="74">
   <si>
     <t xml:space="preserve">Project Manager: </t>
   </si>
@@ -652,6 +652,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -676,6 +682,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -730,24 +754,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -775,12 +781,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -799,25 +799,25 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1363,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AC76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T71" sqref="T71:T76"/>
+    <sheetView tabSelected="1" topLeftCell="F43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1383,107 +1383,107 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:29">
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="32" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
       <c r="AA2" s="11"/>
-      <c r="AB2" s="33" t="s">
+      <c r="AB2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="34"/>
+      <c r="AC2" s="36"/>
     </row>
     <row r="3" spans="3:29">
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="35" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="38"/>
     </row>
     <row r="4" spans="3:29">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="41" t="s">
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="37" t="s">
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="39"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="41"/>
     </row>
     <row r="5" spans="3:29">
       <c r="C5" s="3"/>
@@ -1500,7 +1500,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="79" t="s">
+      <c r="O5" s="32" t="s">
         <v>70</v>
       </c>
       <c r="P5" s="12"/>
@@ -1543,7 +1543,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="79" t="s">
+      <c r="O6" s="32" t="s">
         <v>70</v>
       </c>
       <c r="P6" s="12"/>
@@ -1580,7 +1580,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="79" t="s">
+      <c r="O7" s="32" t="s">
         <v>70</v>
       </c>
       <c r="P7" s="12"/>
@@ -1916,10 +1916,10 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="83" t="s">
+      <c r="P16" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="Q16" s="84"/>
+      <c r="Q16" s="82"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
@@ -2012,19 +2012,19 @@
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
       <c r="O19" s="13"/>
       <c r="P19" s="14"/>
-      <c r="Q19" s="79" t="s">
+      <c r="Q19" s="32" t="s">
         <v>70</v>
       </c>
       <c r="R19" s="14"/>
@@ -2049,19 +2049,19 @@
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
       <c r="O20" s="13"/>
       <c r="P20" s="14"/>
-      <c r="Q20" s="80" t="s">
+      <c r="Q20" s="33" t="s">
         <v>70</v>
       </c>
       <c r="R20" s="14"/>
@@ -2086,19 +2086,19 @@
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
       <c r="O21" s="13"/>
       <c r="P21" s="14"/>
-      <c r="Q21" s="80" t="s">
+      <c r="Q21" s="33" t="s">
         <v>70</v>
       </c>
       <c r="R21" s="14"/>
@@ -2123,19 +2123,19 @@
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
       <c r="O22" s="13"/>
       <c r="P22" s="14"/>
-      <c r="Q22" s="79" t="s">
+      <c r="Q22" s="32" t="s">
         <v>70</v>
       </c>
       <c r="R22" s="14"/>
@@ -2189,16 +2189,16 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
       <c r="O24" s="13"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="81" t="s">
@@ -2224,16 +2224,16 @@
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
       <c r="O25" s="13"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="81" t="s">
@@ -2259,22 +2259,22 @@
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
       <c r="O26" s="13"/>
       <c r="P26" s="14"/>
-      <c r="Q26" s="83" t="s">
+      <c r="Q26" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="R26" s="84"/>
+      <c r="R26" s="82"/>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
@@ -2296,22 +2296,22 @@
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
       <c r="O27" s="13"/>
       <c r="P27" s="14"/>
-      <c r="Q27" s="83" t="s">
+      <c r="Q27" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="R27" s="84"/>
+      <c r="R27" s="82"/>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
@@ -2362,16 +2362,16 @@
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
       <c r="O29" s="13"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
@@ -2399,16 +2399,16 @@
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
       <c r="O30" s="13"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
@@ -2436,16 +2436,16 @@
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
       <c r="O31" s="13"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
@@ -2469,16 +2469,16 @@
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
       <c r="O32" s="13"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
@@ -2492,7 +2492,9 @@
       <c r="W32" s="14"/>
       <c r="X32" s="15"/>
       <c r="Y32" s="22"/>
-      <c r="Z32" s="23"/>
+      <c r="Z32" s="23" t="s">
+        <v>9</v>
+      </c>
       <c r="AA32" s="23"/>
       <c r="AB32" s="23"/>
       <c r="AC32" s="24"/>
@@ -2560,23 +2562,23 @@
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="44" t="s">
+      <c r="G35" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
       <c r="O35" s="13"/>
       <c r="P35" s="14"/>
-      <c r="Q35" s="89" t="s">
+      <c r="Q35" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="R35" s="87"/>
-      <c r="S35" s="88"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="89"/>
       <c r="T35" s="14"/>
       <c r="U35" s="14"/>
       <c r="V35" s="14"/>
@@ -2622,16 +2624,16 @@
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="45" t="s">
+      <c r="G37" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
       <c r="O37" s="13"/>
       <c r="P37" s="14"/>
       <c r="Q37" s="85" t="s">
@@ -2659,16 +2661,16 @@
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="48" t="s">
+      <c r="G38" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
       <c r="O38" s="13"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="85" t="s">
@@ -2696,16 +2698,16 @@
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="48" t="s">
+      <c r="G39" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
       <c r="O39" s="13"/>
       <c r="P39" s="14"/>
       <c r="Q39" s="85" t="s">
@@ -2733,31 +2735,33 @@
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="48" t="s">
+      <c r="G40" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
       <c r="O40" s="13"/>
       <c r="P40" s="14"/>
-      <c r="Q40" s="93" t="s">
+      <c r="Q40" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="R40" s="91"/>
-      <c r="S40" s="91"/>
-      <c r="T40" s="92"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="92"/>
+      <c r="T40" s="93"/>
       <c r="U40" s="14"/>
       <c r="V40" s="14"/>
       <c r="W40" s="14"/>
       <c r="X40" s="15"/>
       <c r="Y40" s="22"/>
       <c r="Z40" s="23"/>
-      <c r="AA40" s="23"/>
+      <c r="AA40" s="23" t="s">
+        <v>9</v>
+      </c>
       <c r="AB40" s="23"/>
       <c r="AC40" s="24"/>
     </row>
@@ -2766,16 +2770,16 @@
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="48" t="s">
+      <c r="G41" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
       <c r="O41" s="13"/>
       <c r="P41" s="14"/>
       <c r="Q41" s="85" t="s">
@@ -2803,30 +2807,32 @@
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="48" t="s">
+      <c r="G42" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
       <c r="O42" s="13"/>
       <c r="P42" s="14"/>
-      <c r="Q42" s="93" t="s">
+      <c r="Q42" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="R42" s="91"/>
-      <c r="S42" s="91"/>
-      <c r="T42" s="92"/>
+      <c r="R42" s="92"/>
+      <c r="S42" s="92"/>
+      <c r="T42" s="93"/>
       <c r="U42" s="14"/>
       <c r="V42" s="14"/>
       <c r="W42" s="14"/>
       <c r="X42" s="15"/>
       <c r="Y42" s="22"/>
-      <c r="Z42" s="23"/>
+      <c r="Z42" s="23" t="s">
+        <v>9</v>
+      </c>
       <c r="AA42" s="23"/>
       <c r="AB42" s="23"/>
       <c r="AC42" s="24"/>
@@ -2865,24 +2871,24 @@
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="48" t="s">
+      <c r="G44" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
       <c r="O44" s="13"/>
       <c r="P44" s="14"/>
-      <c r="Q44" s="93" t="s">
+      <c r="Q44" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="R44" s="91"/>
-      <c r="S44" s="91"/>
-      <c r="T44" s="92"/>
+      <c r="R44" s="92"/>
+      <c r="S44" s="92"/>
+      <c r="T44" s="93"/>
       <c r="U44" s="17"/>
       <c r="V44" s="14"/>
       <c r="W44" s="14"/>
@@ -2910,12 +2916,12 @@
       <c r="N45" s="4"/>
       <c r="O45" s="13"/>
       <c r="P45" s="14"/>
-      <c r="Q45" s="93" t="s">
+      <c r="Q45" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="R45" s="91"/>
-      <c r="S45" s="91"/>
-      <c r="T45" s="92"/>
+      <c r="R45" s="92"/>
+      <c r="S45" s="92"/>
+      <c r="T45" s="93"/>
       <c r="U45" s="17"/>
       <c r="V45" s="14"/>
       <c r="W45" s="14"/>
@@ -2931,24 +2937,24 @@
       <c r="D46" s="4"/>
       <c r="E46" s="5"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="48" t="s">
+      <c r="G46" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
       <c r="O46" s="13"/>
       <c r="P46" s="14"/>
-      <c r="Q46" s="93" t="s">
+      <c r="Q46" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="R46" s="91"/>
-      <c r="S46" s="91"/>
-      <c r="T46" s="92"/>
+      <c r="R46" s="92"/>
+      <c r="S46" s="92"/>
+      <c r="T46" s="93"/>
       <c r="U46" s="17"/>
       <c r="V46" s="14"/>
       <c r="W46" s="14"/>
@@ -2964,24 +2970,24 @@
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="48" t="s">
+      <c r="G47" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
       <c r="O47" s="13"/>
       <c r="P47" s="14"/>
-      <c r="Q47" s="93" t="s">
+      <c r="Q47" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="R47" s="91"/>
-      <c r="S47" s="91"/>
-      <c r="T47" s="92"/>
+      <c r="R47" s="92"/>
+      <c r="S47" s="92"/>
+      <c r="T47" s="93"/>
       <c r="U47" s="17"/>
       <c r="V47" s="14"/>
       <c r="W47" s="14"/>
@@ -3009,12 +3015,12 @@
       <c r="N48" s="4"/>
       <c r="O48" s="13"/>
       <c r="P48" s="14"/>
-      <c r="Q48" s="93" t="s">
+      <c r="Q48" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="R48" s="91"/>
-      <c r="S48" s="91"/>
-      <c r="T48" s="92"/>
+      <c r="R48" s="92"/>
+      <c r="S48" s="92"/>
+      <c r="T48" s="93"/>
       <c r="U48" s="17"/>
       <c r="V48" s="14"/>
       <c r="W48" s="14"/>
@@ -3042,12 +3048,12 @@
       <c r="N49" s="4"/>
       <c r="O49" s="13"/>
       <c r="P49" s="14"/>
-      <c r="Q49" s="93" t="s">
+      <c r="Q49" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="R49" s="91"/>
-      <c r="S49" s="91"/>
-      <c r="T49" s="92"/>
+      <c r="R49" s="92"/>
+      <c r="S49" s="92"/>
+      <c r="T49" s="93"/>
       <c r="U49" s="17"/>
       <c r="V49" s="14"/>
       <c r="W49" s="14"/>
@@ -3104,7 +3110,7 @@
       <c r="N51" s="4"/>
       <c r="O51" s="13"/>
       <c r="P51" s="14"/>
-      <c r="Q51" s="80" t="s">
+      <c r="Q51" s="33" t="s">
         <v>70</v>
       </c>
       <c r="R51" s="12"/>
@@ -3137,7 +3143,7 @@
       <c r="N52" s="4"/>
       <c r="O52" s="13"/>
       <c r="P52" s="14"/>
-      <c r="Q52" s="80" t="s">
+      <c r="Q52" s="33" t="s">
         <v>70</v>
       </c>
       <c r="R52" s="12"/>
@@ -3170,7 +3176,7 @@
       <c r="N53" s="4"/>
       <c r="O53" s="13"/>
       <c r="P53" s="14"/>
-      <c r="Q53" s="80" t="s">
+      <c r="Q53" s="33" t="s">
         <v>70</v>
       </c>
       <c r="R53" s="12"/>
@@ -3203,7 +3209,7 @@
       <c r="N54" s="4"/>
       <c r="O54" s="13"/>
       <c r="P54" s="14"/>
-      <c r="Q54" s="80" t="s">
+      <c r="Q54" s="33" t="s">
         <v>70</v>
       </c>
       <c r="R54" s="12"/>
@@ -3236,7 +3242,7 @@
       <c r="N55" s="4"/>
       <c r="O55" s="13"/>
       <c r="P55" s="14"/>
-      <c r="Q55" s="80" t="s">
+      <c r="Q55" s="33" t="s">
         <v>70</v>
       </c>
       <c r="R55" s="12"/>
@@ -3269,7 +3275,7 @@
       <c r="N56" s="4"/>
       <c r="O56" s="13"/>
       <c r="P56" s="14"/>
-      <c r="Q56" s="80" t="s">
+      <c r="Q56" s="33" t="s">
         <v>70</v>
       </c>
       <c r="R56" s="12"/>
@@ -3302,7 +3308,7 @@
       <c r="N57" s="4"/>
       <c r="O57" s="13"/>
       <c r="P57" s="14"/>
-      <c r="Q57" s="80" t="s">
+      <c r="Q57" s="33" t="s">
         <v>70</v>
       </c>
       <c r="R57" s="12"/>
@@ -3521,7 +3527,7 @@
       <c r="N64" s="4"/>
       <c r="O64" s="13"/>
       <c r="P64" s="14"/>
-      <c r="Q64" s="79" t="s">
+      <c r="Q64" s="32" t="s">
         <v>70</v>
       </c>
       <c r="R64" s="14"/>
@@ -3558,7 +3564,7 @@
       <c r="N65" s="4"/>
       <c r="O65" s="13"/>
       <c r="P65" s="14"/>
-      <c r="Q65" s="79" t="s">
+      <c r="Q65" s="32" t="s">
         <v>70</v>
       </c>
       <c r="R65" s="14"/>
@@ -3734,206 +3740,206 @@
       </c>
     </row>
     <row r="71" spans="3:29">
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="52" t="s">
+      <c r="D71" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="E71" s="55" t="s">
+      <c r="E71" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="F71" s="64"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
-      <c r="J71" s="65"/>
-      <c r="K71" s="65"/>
-      <c r="L71" s="65"/>
-      <c r="M71" s="65"/>
-      <c r="N71" s="65"/>
-      <c r="O71" s="58">
+      <c r="F71" s="46"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="66">
         <v>43969</v>
       </c>
-      <c r="P71" s="60">
+      <c r="P71" s="68">
         <v>43976</v>
       </c>
-      <c r="Q71" s="60">
+      <c r="Q71" s="68">
         <v>43983</v>
       </c>
-      <c r="R71" s="60">
+      <c r="R71" s="68">
         <v>43990</v>
       </c>
-      <c r="S71" s="60">
+      <c r="S71" s="68">
         <v>43997</v>
       </c>
-      <c r="T71" s="60">
+      <c r="T71" s="68">
         <v>44004</v>
       </c>
-      <c r="U71" s="60">
+      <c r="U71" s="68">
         <v>44011</v>
       </c>
-      <c r="V71" s="60">
+      <c r="V71" s="68">
         <v>44018</v>
       </c>
-      <c r="W71" s="60">
+      <c r="W71" s="68">
         <v>44025</v>
       </c>
-      <c r="X71" s="62">
+      <c r="X71" s="70">
         <v>44032</v>
       </c>
-      <c r="Y71" s="70" t="s">
+      <c r="Y71" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="Z71" s="71"/>
-      <c r="AA71" s="71"/>
-      <c r="AB71" s="71"/>
-      <c r="AC71" s="72"/>
+      <c r="Z71" s="73"/>
+      <c r="AA71" s="73"/>
+      <c r="AB71" s="73"/>
+      <c r="AC71" s="74"/>
     </row>
     <row r="72" spans="3:29">
-      <c r="C72" s="50"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="78"/>
-      <c r="H72" s="78"/>
-      <c r="I72" s="78"/>
-      <c r="J72" s="78"/>
-      <c r="K72" s="78"/>
-      <c r="L72" s="78"/>
-      <c r="M72" s="78"/>
-      <c r="N72" s="78"/>
-      <c r="O72" s="58"/>
-      <c r="P72" s="60"/>
-      <c r="Q72" s="60"/>
-      <c r="R72" s="60"/>
-      <c r="S72" s="60"/>
-      <c r="T72" s="60"/>
-      <c r="U72" s="60"/>
-      <c r="V72" s="60"/>
-      <c r="W72" s="60"/>
-      <c r="X72" s="62"/>
-      <c r="Y72" s="73"/>
-      <c r="Z72" s="71"/>
-      <c r="AA72" s="71"/>
-      <c r="AB72" s="71"/>
-      <c r="AC72" s="72"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="80"/>
+      <c r="H72" s="80"/>
+      <c r="I72" s="80"/>
+      <c r="J72" s="80"/>
+      <c r="K72" s="80"/>
+      <c r="L72" s="80"/>
+      <c r="M72" s="80"/>
+      <c r="N72" s="80"/>
+      <c r="O72" s="66"/>
+      <c r="P72" s="68"/>
+      <c r="Q72" s="68"/>
+      <c r="R72" s="68"/>
+      <c r="S72" s="68"/>
+      <c r="T72" s="68"/>
+      <c r="U72" s="68"/>
+      <c r="V72" s="68"/>
+      <c r="W72" s="68"/>
+      <c r="X72" s="70"/>
+      <c r="Y72" s="75"/>
+      <c r="Z72" s="73"/>
+      <c r="AA72" s="73"/>
+      <c r="AB72" s="73"/>
+      <c r="AC72" s="74"/>
     </row>
     <row r="73" spans="3:29">
-      <c r="C73" s="50"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="78"/>
-      <c r="H73" s="78"/>
-      <c r="I73" s="78"/>
-      <c r="J73" s="78"/>
-      <c r="K73" s="78"/>
-      <c r="L73" s="78"/>
-      <c r="M73" s="78"/>
-      <c r="N73" s="78"/>
-      <c r="O73" s="58"/>
-      <c r="P73" s="60"/>
-      <c r="Q73" s="60"/>
-      <c r="R73" s="60"/>
-      <c r="S73" s="60"/>
-      <c r="T73" s="60"/>
-      <c r="U73" s="60"/>
-      <c r="V73" s="60"/>
-      <c r="W73" s="60"/>
-      <c r="X73" s="62"/>
-      <c r="Y73" s="73"/>
-      <c r="Z73" s="71"/>
-      <c r="AA73" s="71"/>
-      <c r="AB73" s="71"/>
-      <c r="AC73" s="72"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="80"/>
+      <c r="H73" s="80"/>
+      <c r="I73" s="80"/>
+      <c r="J73" s="80"/>
+      <c r="K73" s="80"/>
+      <c r="L73" s="80"/>
+      <c r="M73" s="80"/>
+      <c r="N73" s="80"/>
+      <c r="O73" s="66"/>
+      <c r="P73" s="68"/>
+      <c r="Q73" s="68"/>
+      <c r="R73" s="68"/>
+      <c r="S73" s="68"/>
+      <c r="T73" s="68"/>
+      <c r="U73" s="68"/>
+      <c r="V73" s="68"/>
+      <c r="W73" s="68"/>
+      <c r="X73" s="70"/>
+      <c r="Y73" s="75"/>
+      <c r="Z73" s="73"/>
+      <c r="AA73" s="73"/>
+      <c r="AB73" s="73"/>
+      <c r="AC73" s="74"/>
     </row>
     <row r="74" spans="3:29">
-      <c r="C74" s="50"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="77"/>
-      <c r="G74" s="78"/>
-      <c r="H74" s="78"/>
-      <c r="I74" s="78"/>
-      <c r="J74" s="78"/>
-      <c r="K74" s="78"/>
-      <c r="L74" s="78"/>
-      <c r="M74" s="78"/>
-      <c r="N74" s="78"/>
-      <c r="O74" s="58"/>
-      <c r="P74" s="60"/>
-      <c r="Q74" s="60"/>
-      <c r="R74" s="60"/>
-      <c r="S74" s="60"/>
-      <c r="T74" s="60"/>
-      <c r="U74" s="60"/>
-      <c r="V74" s="60"/>
-      <c r="W74" s="60"/>
-      <c r="X74" s="62"/>
-      <c r="Y74" s="73"/>
-      <c r="Z74" s="71"/>
-      <c r="AA74" s="71"/>
-      <c r="AB74" s="71"/>
-      <c r="AC74" s="72"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="80"/>
+      <c r="H74" s="80"/>
+      <c r="I74" s="80"/>
+      <c r="J74" s="80"/>
+      <c r="K74" s="80"/>
+      <c r="L74" s="80"/>
+      <c r="M74" s="80"/>
+      <c r="N74" s="80"/>
+      <c r="O74" s="66"/>
+      <c r="P74" s="68"/>
+      <c r="Q74" s="68"/>
+      <c r="R74" s="68"/>
+      <c r="S74" s="68"/>
+      <c r="T74" s="68"/>
+      <c r="U74" s="68"/>
+      <c r="V74" s="68"/>
+      <c r="W74" s="68"/>
+      <c r="X74" s="70"/>
+      <c r="Y74" s="75"/>
+      <c r="Z74" s="73"/>
+      <c r="AA74" s="73"/>
+      <c r="AB74" s="73"/>
+      <c r="AC74" s="74"/>
     </row>
     <row r="75" spans="3:29">
-      <c r="C75" s="50"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="77"/>
-      <c r="G75" s="78"/>
-      <c r="H75" s="78"/>
-      <c r="I75" s="78"/>
-      <c r="J75" s="78"/>
-      <c r="K75" s="78"/>
-      <c r="L75" s="78"/>
-      <c r="M75" s="78"/>
-      <c r="N75" s="78"/>
-      <c r="O75" s="58"/>
-      <c r="P75" s="60"/>
-      <c r="Q75" s="60"/>
-      <c r="R75" s="60"/>
-      <c r="S75" s="60"/>
-      <c r="T75" s="60"/>
-      <c r="U75" s="60"/>
-      <c r="V75" s="60"/>
-      <c r="W75" s="60"/>
-      <c r="X75" s="62"/>
-      <c r="Y75" s="73"/>
-      <c r="Z75" s="71"/>
-      <c r="AA75" s="71"/>
-      <c r="AB75" s="71"/>
-      <c r="AC75" s="72"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="80"/>
+      <c r="H75" s="80"/>
+      <c r="I75" s="80"/>
+      <c r="J75" s="80"/>
+      <c r="K75" s="80"/>
+      <c r="L75" s="80"/>
+      <c r="M75" s="80"/>
+      <c r="N75" s="80"/>
+      <c r="O75" s="66"/>
+      <c r="P75" s="68"/>
+      <c r="Q75" s="68"/>
+      <c r="R75" s="68"/>
+      <c r="S75" s="68"/>
+      <c r="T75" s="68"/>
+      <c r="U75" s="68"/>
+      <c r="V75" s="68"/>
+      <c r="W75" s="68"/>
+      <c r="X75" s="70"/>
+      <c r="Y75" s="75"/>
+      <c r="Z75" s="73"/>
+      <c r="AA75" s="73"/>
+      <c r="AB75" s="73"/>
+      <c r="AC75" s="74"/>
     </row>
     <row r="76" spans="3:29">
-      <c r="C76" s="51"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="68"/>
-      <c r="H76" s="68"/>
-      <c r="I76" s="68"/>
-      <c r="J76" s="68"/>
-      <c r="K76" s="68"/>
-      <c r="L76" s="68"/>
-      <c r="M76" s="68"/>
-      <c r="N76" s="68"/>
-      <c r="O76" s="59"/>
-      <c r="P76" s="61"/>
-      <c r="Q76" s="61"/>
-      <c r="R76" s="61"/>
-      <c r="S76" s="61"/>
-      <c r="T76" s="61"/>
-      <c r="U76" s="61"/>
-      <c r="V76" s="61"/>
-      <c r="W76" s="61"/>
-      <c r="X76" s="63"/>
-      <c r="Y76" s="74"/>
-      <c r="Z76" s="75"/>
-      <c r="AA76" s="75"/>
-      <c r="AB76" s="75"/>
-      <c r="AC76" s="76"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="50"/>
+      <c r="M76" s="50"/>
+      <c r="N76" s="50"/>
+      <c r="O76" s="67"/>
+      <c r="P76" s="69"/>
+      <c r="Q76" s="69"/>
+      <c r="R76" s="69"/>
+      <c r="S76" s="69"/>
+      <c r="T76" s="69"/>
+      <c r="U76" s="69"/>
+      <c r="V76" s="69"/>
+      <c r="W76" s="69"/>
+      <c r="X76" s="71"/>
+      <c r="Y76" s="76"/>
+      <c r="Z76" s="77"/>
+      <c r="AA76" s="77"/>
+      <c r="AB76" s="77"/>
+      <c r="AC76" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="77">

--- a/document/Plan.xlsx
+++ b/document/Plan.xlsx
@@ -658,6 +658,138 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -682,143 +814,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1363,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AC76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1383,107 +1383,107 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:29">
-      <c r="C2" s="46"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="34" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
       <c r="AA2" s="11"/>
-      <c r="AB2" s="35" t="s">
+      <c r="AB2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="36"/>
+      <c r="AC2" s="82"/>
     </row>
     <row r="3" spans="3:29">
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="37" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="38"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="84"/>
     </row>
     <row r="4" spans="3:29">
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42" t="s">
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="43" t="s">
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="39" t="s">
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="41"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87"/>
     </row>
     <row r="5" spans="3:29">
       <c r="C5" s="3"/>
@@ -1646,10 +1646,10 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="81" t="s">
+      <c r="O9" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="P9" s="82"/>
+      <c r="P9" s="59"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
@@ -1690,10 +1690,10 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="13"/>
-      <c r="P10" s="81" t="s">
+      <c r="P10" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="Q10" s="82"/>
+      <c r="Q10" s="59"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
@@ -1762,10 +1762,10 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="83" t="s">
+      <c r="P12" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="84"/>
+      <c r="Q12" s="35"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
@@ -1801,10 +1801,10 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="13"/>
-      <c r="P13" s="81" t="s">
+      <c r="P13" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="Q13" s="82"/>
+      <c r="Q13" s="59"/>
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
@@ -1840,10 +1840,10 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="81" t="s">
+      <c r="P14" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="Q14" s="82"/>
+      <c r="Q14" s="59"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
@@ -1877,10 +1877,10 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="13"/>
-      <c r="P15" s="81" t="s">
+      <c r="P15" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="Q15" s="82"/>
+      <c r="Q15" s="59"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
@@ -1916,10 +1916,10 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="81" t="s">
+      <c r="P16" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="Q16" s="82"/>
+      <c r="Q16" s="59"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
@@ -1955,10 +1955,10 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="13"/>
-      <c r="P17" s="83" t="s">
+      <c r="P17" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="Q17" s="84"/>
+      <c r="Q17" s="35"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
@@ -2012,16 +2012,16 @@
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
       <c r="O19" s="13"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="32" t="s">
@@ -2049,19 +2049,19 @@
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="53" t="s">
+      <c r="G20" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
       <c r="O20" s="13"/>
       <c r="P20" s="14"/>
-      <c r="Q20" s="33" t="s">
+      <c r="Q20" s="32" t="s">
         <v>70</v>
       </c>
       <c r="R20" s="14"/>
@@ -2086,19 +2086,19 @@
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="53" t="s">
+      <c r="G21" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
       <c r="O21" s="13"/>
       <c r="P21" s="14"/>
-      <c r="Q21" s="33" t="s">
+      <c r="Q21" s="32" t="s">
         <v>70</v>
       </c>
       <c r="R21" s="14"/>
@@ -2123,16 +2123,16 @@
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="53" t="s">
+      <c r="G22" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
       <c r="O22" s="13"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="32" t="s">
@@ -2189,22 +2189,22 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="54" t="s">
+      <c r="G24" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
       <c r="O24" s="13"/>
       <c r="P24" s="14"/>
-      <c r="Q24" s="81" t="s">
+      <c r="Q24" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="R24" s="82"/>
+      <c r="R24" s="59"/>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
@@ -2224,22 +2224,22 @@
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="54" t="s">
+      <c r="G25" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
       <c r="O25" s="13"/>
       <c r="P25" s="14"/>
-      <c r="Q25" s="81" t="s">
+      <c r="Q25" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="R25" s="82"/>
+      <c r="R25" s="59"/>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
@@ -2259,22 +2259,22 @@
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="54" t="s">
+      <c r="G26" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
       <c r="O26" s="13"/>
       <c r="P26" s="14"/>
-      <c r="Q26" s="81" t="s">
+      <c r="Q26" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="R26" s="82"/>
+      <c r="R26" s="59"/>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
@@ -2296,22 +2296,22 @@
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="54" t="s">
+      <c r="G27" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
       <c r="O27" s="13"/>
       <c r="P27" s="14"/>
-      <c r="Q27" s="81" t="s">
+      <c r="Q27" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="R27" s="82"/>
+      <c r="R27" s="59"/>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
@@ -2362,23 +2362,23 @@
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="54" t="s">
+      <c r="G29" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
       <c r="O29" s="13"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
-      <c r="R29" s="85" t="s">
+      <c r="R29" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="S29" s="86"/>
+      <c r="S29" s="41"/>
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
       <c r="V29" s="14"/>
@@ -2399,23 +2399,23 @@
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="54" t="s">
+      <c r="G30" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
       <c r="O30" s="13"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
-      <c r="R30" s="85" t="s">
+      <c r="R30" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="S30" s="86"/>
+      <c r="S30" s="41"/>
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
       <c r="V30" s="14"/>
@@ -2436,23 +2436,23 @@
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
       <c r="O31" s="13"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
-      <c r="R31" s="85" t="s">
+      <c r="R31" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="S31" s="86"/>
+      <c r="S31" s="41"/>
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
@@ -2469,23 +2469,23 @@
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="54" t="s">
+      <c r="G32" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
       <c r="O32" s="13"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
-      <c r="R32" s="83" t="s">
+      <c r="R32" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="S32" s="84"/>
+      <c r="S32" s="41"/>
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
       <c r="V32" s="14"/>
@@ -2562,23 +2562,23 @@
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
       <c r="O35" s="13"/>
       <c r="P35" s="14"/>
-      <c r="Q35" s="87" t="s">
+      <c r="Q35" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="R35" s="88"/>
-      <c r="S35" s="89"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="44"/>
       <c r="T35" s="14"/>
       <c r="U35" s="14"/>
       <c r="V35" s="14"/>
@@ -2624,24 +2624,24 @@
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="53" t="s">
+      <c r="G37" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
       <c r="O37" s="13"/>
       <c r="P37" s="14"/>
-      <c r="Q37" s="85" t="s">
+      <c r="Q37" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="R37" s="90"/>
-      <c r="S37" s="90"/>
-      <c r="T37" s="86"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="41"/>
       <c r="U37" s="14"/>
       <c r="V37" s="14"/>
       <c r="W37" s="14"/>
@@ -2661,24 +2661,24 @@
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="56" t="s">
+      <c r="G38" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
       <c r="O38" s="13"/>
       <c r="P38" s="14"/>
-      <c r="Q38" s="85" t="s">
+      <c r="Q38" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="R38" s="90"/>
-      <c r="S38" s="90"/>
-      <c r="T38" s="86"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="41"/>
       <c r="U38" s="14"/>
       <c r="V38" s="14"/>
       <c r="W38" s="14"/>
@@ -2698,24 +2698,24 @@
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="56" t="s">
+      <c r="G39" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="76"/>
       <c r="O39" s="13"/>
       <c r="P39" s="14"/>
-      <c r="Q39" s="85" t="s">
+      <c r="Q39" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="R39" s="90"/>
-      <c r="S39" s="90"/>
-      <c r="T39" s="86"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="41"/>
       <c r="U39" s="14"/>
       <c r="V39" s="14"/>
       <c r="W39" s="14"/>
@@ -2735,24 +2735,24 @@
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="56" t="s">
+      <c r="G40" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
       <c r="O40" s="13"/>
       <c r="P40" s="14"/>
-      <c r="Q40" s="91" t="s">
+      <c r="Q40" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="R40" s="92"/>
-      <c r="S40" s="92"/>
-      <c r="T40" s="93"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="38"/>
       <c r="U40" s="14"/>
       <c r="V40" s="14"/>
       <c r="W40" s="14"/>
@@ -2770,24 +2770,24 @@
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="56" t="s">
+      <c r="G41" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
       <c r="O41" s="13"/>
       <c r="P41" s="14"/>
-      <c r="Q41" s="85" t="s">
+      <c r="Q41" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="R41" s="90"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="86"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="41"/>
       <c r="U41" s="14"/>
       <c r="V41" s="14"/>
       <c r="W41" s="14"/>
@@ -2807,24 +2807,24 @@
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="56" t="s">
+      <c r="G42" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
       <c r="O42" s="13"/>
       <c r="P42" s="14"/>
-      <c r="Q42" s="91" t="s">
+      <c r="Q42" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="R42" s="92"/>
-      <c r="S42" s="92"/>
-      <c r="T42" s="93"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="41"/>
       <c r="U42" s="14"/>
       <c r="V42" s="14"/>
       <c r="W42" s="14"/>
@@ -2871,24 +2871,24 @@
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="56" t="s">
+      <c r="G44" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="66"/>
       <c r="O44" s="13"/>
       <c r="P44" s="14"/>
-      <c r="Q44" s="91" t="s">
+      <c r="Q44" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="R44" s="92"/>
-      <c r="S44" s="92"/>
-      <c r="T44" s="93"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="38"/>
       <c r="U44" s="17"/>
       <c r="V44" s="14"/>
       <c r="W44" s="14"/>
@@ -2916,12 +2916,12 @@
       <c r="N45" s="4"/>
       <c r="O45" s="13"/>
       <c r="P45" s="14"/>
-      <c r="Q45" s="91" t="s">
+      <c r="Q45" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="R45" s="92"/>
-      <c r="S45" s="92"/>
-      <c r="T45" s="93"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="38"/>
       <c r="U45" s="17"/>
       <c r="V45" s="14"/>
       <c r="W45" s="14"/>
@@ -2937,24 +2937,24 @@
       <c r="D46" s="4"/>
       <c r="E46" s="5"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="56" t="s">
+      <c r="G46" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="66"/>
+      <c r="N46" s="66"/>
       <c r="O46" s="13"/>
       <c r="P46" s="14"/>
-      <c r="Q46" s="91" t="s">
+      <c r="Q46" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="R46" s="92"/>
-      <c r="S46" s="92"/>
-      <c r="T46" s="93"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="38"/>
       <c r="U46" s="17"/>
       <c r="V46" s="14"/>
       <c r="W46" s="14"/>
@@ -2970,24 +2970,24 @@
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="56" t="s">
+      <c r="G47" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="66"/>
+      <c r="N47" s="66"/>
       <c r="O47" s="13"/>
       <c r="P47" s="14"/>
-      <c r="Q47" s="91" t="s">
+      <c r="Q47" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="R47" s="92"/>
-      <c r="S47" s="92"/>
-      <c r="T47" s="93"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="38"/>
       <c r="U47" s="17"/>
       <c r="V47" s="14"/>
       <c r="W47" s="14"/>
@@ -3015,12 +3015,12 @@
       <c r="N48" s="4"/>
       <c r="O48" s="13"/>
       <c r="P48" s="14"/>
-      <c r="Q48" s="91" t="s">
+      <c r="Q48" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="R48" s="92"/>
-      <c r="S48" s="92"/>
-      <c r="T48" s="93"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="38"/>
       <c r="U48" s="17"/>
       <c r="V48" s="14"/>
       <c r="W48" s="14"/>
@@ -3048,12 +3048,12 @@
       <c r="N49" s="4"/>
       <c r="O49" s="13"/>
       <c r="P49" s="14"/>
-      <c r="Q49" s="91" t="s">
+      <c r="Q49" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="R49" s="92"/>
-      <c r="S49" s="92"/>
-      <c r="T49" s="93"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="38"/>
       <c r="U49" s="17"/>
       <c r="V49" s="14"/>
       <c r="W49" s="14"/>
@@ -3432,10 +3432,10 @@
       <c r="N61" s="4"/>
       <c r="O61" s="13"/>
       <c r="P61" s="14"/>
-      <c r="Q61" s="83" t="s">
+      <c r="Q61" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="R61" s="84"/>
+      <c r="R61" s="35"/>
       <c r="S61" s="12"/>
       <c r="T61" s="12"/>
       <c r="U61" s="12"/>
@@ -3467,10 +3467,10 @@
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
       <c r="R62" s="12"/>
-      <c r="S62" s="83" t="s">
+      <c r="S62" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="T62" s="84"/>
+      <c r="T62" s="35"/>
       <c r="U62" s="17"/>
       <c r="V62" s="17"/>
       <c r="W62" s="14"/>
@@ -3740,226 +3740,253 @@
       </c>
     </row>
     <row r="71" spans="3:29">
-      <c r="C71" s="57" t="s">
+      <c r="C71" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="60" t="s">
+      <c r="D71" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="E71" s="63" t="s">
+      <c r="E71" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="F71" s="46"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="66">
+      <c r="F71" s="52"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="53"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="53"/>
+      <c r="M71" s="53"/>
+      <c r="N71" s="53"/>
+      <c r="O71" s="64">
         <v>43969</v>
       </c>
-      <c r="P71" s="68">
+      <c r="P71" s="60">
         <v>43976</v>
       </c>
-      <c r="Q71" s="68">
+      <c r="Q71" s="60">
         <v>43983</v>
       </c>
-      <c r="R71" s="68">
+      <c r="R71" s="60">
         <v>43990</v>
       </c>
-      <c r="S71" s="68">
+      <c r="S71" s="60">
         <v>43997</v>
       </c>
-      <c r="T71" s="68">
+      <c r="T71" s="60">
         <v>44004</v>
       </c>
-      <c r="U71" s="68">
+      <c r="U71" s="60">
         <v>44011</v>
       </c>
-      <c r="V71" s="68">
+      <c r="V71" s="60">
         <v>44018</v>
       </c>
-      <c r="W71" s="68">
+      <c r="W71" s="60">
         <v>44025</v>
       </c>
-      <c r="X71" s="70">
+      <c r="X71" s="62">
         <v>44032</v>
       </c>
-      <c r="Y71" s="72" t="s">
+      <c r="Y71" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="Z71" s="73"/>
-      <c r="AA71" s="73"/>
-      <c r="AB71" s="73"/>
-      <c r="AC71" s="74"/>
+      <c r="Z71" s="46"/>
+      <c r="AA71" s="46"/>
+      <c r="AB71" s="46"/>
+      <c r="AC71" s="47"/>
     </row>
     <row r="72" spans="3:29">
-      <c r="C72" s="58"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="80"/>
-      <c r="H72" s="80"/>
-      <c r="I72" s="80"/>
-      <c r="J72" s="80"/>
-      <c r="K72" s="80"/>
-      <c r="L72" s="80"/>
-      <c r="M72" s="80"/>
-      <c r="N72" s="80"/>
-      <c r="O72" s="66"/>
-      <c r="P72" s="68"/>
-      <c r="Q72" s="68"/>
-      <c r="R72" s="68"/>
-      <c r="S72" s="68"/>
-      <c r="T72" s="68"/>
-      <c r="U72" s="68"/>
-      <c r="V72" s="68"/>
-      <c r="W72" s="68"/>
-      <c r="X72" s="70"/>
-      <c r="Y72" s="75"/>
-      <c r="Z72" s="73"/>
-      <c r="AA72" s="73"/>
-      <c r="AB72" s="73"/>
-      <c r="AC72" s="74"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="55"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="55"/>
+      <c r="M72" s="55"/>
+      <c r="N72" s="55"/>
+      <c r="O72" s="64"/>
+      <c r="P72" s="60"/>
+      <c r="Q72" s="60"/>
+      <c r="R72" s="60"/>
+      <c r="S72" s="60"/>
+      <c r="T72" s="60"/>
+      <c r="U72" s="60"/>
+      <c r="V72" s="60"/>
+      <c r="W72" s="60"/>
+      <c r="X72" s="62"/>
+      <c r="Y72" s="48"/>
+      <c r="Z72" s="46"/>
+      <c r="AA72" s="46"/>
+      <c r="AB72" s="46"/>
+      <c r="AC72" s="47"/>
     </row>
     <row r="73" spans="3:29">
-      <c r="C73" s="58"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="80"/>
-      <c r="H73" s="80"/>
-      <c r="I73" s="80"/>
-      <c r="J73" s="80"/>
-      <c r="K73" s="80"/>
-      <c r="L73" s="80"/>
-      <c r="M73" s="80"/>
-      <c r="N73" s="80"/>
-      <c r="O73" s="66"/>
-      <c r="P73" s="68"/>
-      <c r="Q73" s="68"/>
-      <c r="R73" s="68"/>
-      <c r="S73" s="68"/>
-      <c r="T73" s="68"/>
-      <c r="U73" s="68"/>
-      <c r="V73" s="68"/>
-      <c r="W73" s="68"/>
-      <c r="X73" s="70"/>
-      <c r="Y73" s="75"/>
-      <c r="Z73" s="73"/>
-      <c r="AA73" s="73"/>
-      <c r="AB73" s="73"/>
-      <c r="AC73" s="74"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="55"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="55"/>
+      <c r="M73" s="55"/>
+      <c r="N73" s="55"/>
+      <c r="O73" s="64"/>
+      <c r="P73" s="60"/>
+      <c r="Q73" s="60"/>
+      <c r="R73" s="60"/>
+      <c r="S73" s="60"/>
+      <c r="T73" s="60"/>
+      <c r="U73" s="60"/>
+      <c r="V73" s="60"/>
+      <c r="W73" s="60"/>
+      <c r="X73" s="62"/>
+      <c r="Y73" s="48"/>
+      <c r="Z73" s="46"/>
+      <c r="AA73" s="46"/>
+      <c r="AB73" s="46"/>
+      <c r="AC73" s="47"/>
     </row>
     <row r="74" spans="3:29">
-      <c r="C74" s="58"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="80"/>
-      <c r="H74" s="80"/>
-      <c r="I74" s="80"/>
-      <c r="J74" s="80"/>
-      <c r="K74" s="80"/>
-      <c r="L74" s="80"/>
-      <c r="M74" s="80"/>
-      <c r="N74" s="80"/>
-      <c r="O74" s="66"/>
-      <c r="P74" s="68"/>
-      <c r="Q74" s="68"/>
-      <c r="R74" s="68"/>
-      <c r="S74" s="68"/>
-      <c r="T74" s="68"/>
-      <c r="U74" s="68"/>
-      <c r="V74" s="68"/>
-      <c r="W74" s="68"/>
-      <c r="X74" s="70"/>
-      <c r="Y74" s="75"/>
-      <c r="Z74" s="73"/>
-      <c r="AA74" s="73"/>
-      <c r="AB74" s="73"/>
-      <c r="AC74" s="74"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="55"/>
+      <c r="J74" s="55"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="55"/>
+      <c r="M74" s="55"/>
+      <c r="N74" s="55"/>
+      <c r="O74" s="64"/>
+      <c r="P74" s="60"/>
+      <c r="Q74" s="60"/>
+      <c r="R74" s="60"/>
+      <c r="S74" s="60"/>
+      <c r="T74" s="60"/>
+      <c r="U74" s="60"/>
+      <c r="V74" s="60"/>
+      <c r="W74" s="60"/>
+      <c r="X74" s="62"/>
+      <c r="Y74" s="48"/>
+      <c r="Z74" s="46"/>
+      <c r="AA74" s="46"/>
+      <c r="AB74" s="46"/>
+      <c r="AC74" s="47"/>
     </row>
     <row r="75" spans="3:29">
-      <c r="C75" s="58"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="79"/>
-      <c r="G75" s="80"/>
-      <c r="H75" s="80"/>
-      <c r="I75" s="80"/>
-      <c r="J75" s="80"/>
-      <c r="K75" s="80"/>
-      <c r="L75" s="80"/>
-      <c r="M75" s="80"/>
-      <c r="N75" s="80"/>
-      <c r="O75" s="66"/>
-      <c r="P75" s="68"/>
-      <c r="Q75" s="68"/>
-      <c r="R75" s="68"/>
-      <c r="S75" s="68"/>
-      <c r="T75" s="68"/>
-      <c r="U75" s="68"/>
-      <c r="V75" s="68"/>
-      <c r="W75" s="68"/>
-      <c r="X75" s="70"/>
-      <c r="Y75" s="75"/>
-      <c r="Z75" s="73"/>
-      <c r="AA75" s="73"/>
-      <c r="AB75" s="73"/>
-      <c r="AC75" s="74"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="55"/>
+      <c r="J75" s="55"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="55"/>
+      <c r="M75" s="55"/>
+      <c r="N75" s="55"/>
+      <c r="O75" s="64"/>
+      <c r="P75" s="60"/>
+      <c r="Q75" s="60"/>
+      <c r="R75" s="60"/>
+      <c r="S75" s="60"/>
+      <c r="T75" s="60"/>
+      <c r="U75" s="60"/>
+      <c r="V75" s="60"/>
+      <c r="W75" s="60"/>
+      <c r="X75" s="62"/>
+      <c r="Y75" s="48"/>
+      <c r="Z75" s="46"/>
+      <c r="AA75" s="46"/>
+      <c r="AB75" s="46"/>
+      <c r="AC75" s="47"/>
     </row>
     <row r="76" spans="3:29">
-      <c r="C76" s="59"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="50"/>
-      <c r="L76" s="50"/>
-      <c r="M76" s="50"/>
-      <c r="N76" s="50"/>
-      <c r="O76" s="67"/>
-      <c r="P76" s="69"/>
-      <c r="Q76" s="69"/>
-      <c r="R76" s="69"/>
-      <c r="S76" s="69"/>
-      <c r="T76" s="69"/>
-      <c r="U76" s="69"/>
-      <c r="V76" s="69"/>
-      <c r="W76" s="69"/>
-      <c r="X76" s="71"/>
-      <c r="Y76" s="76"/>
-      <c r="Z76" s="77"/>
-      <c r="AA76" s="77"/>
-      <c r="AB76" s="77"/>
-      <c r="AC76" s="78"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="57"/>
+      <c r="M76" s="57"/>
+      <c r="N76" s="57"/>
+      <c r="O76" s="65"/>
+      <c r="P76" s="61"/>
+      <c r="Q76" s="61"/>
+      <c r="R76" s="61"/>
+      <c r="S76" s="61"/>
+      <c r="T76" s="61"/>
+      <c r="U76" s="61"/>
+      <c r="V76" s="61"/>
+      <c r="W76" s="61"/>
+      <c r="X76" s="63"/>
+      <c r="Y76" s="49"/>
+      <c r="Z76" s="50"/>
+      <c r="AA76" s="50"/>
+      <c r="AB76" s="50"/>
+      <c r="AC76" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="S62:T62"/>
-    <mergeCell ref="Q45:T45"/>
-    <mergeCell ref="Q46:T46"/>
-    <mergeCell ref="Q47:T47"/>
-    <mergeCell ref="Q48:T48"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Q44:T44"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="F3:AC3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="O4:X4"/>
+    <mergeCell ref="Y4:AC4"/>
+    <mergeCell ref="C2:E3"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="G24:N24"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="G30:N30"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="G32:N32"/>
+    <mergeCell ref="G35:N35"/>
+    <mergeCell ref="G37:N37"/>
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="G40:N40"/>
+    <mergeCell ref="G41:N41"/>
+    <mergeCell ref="G42:N42"/>
+    <mergeCell ref="G44:N44"/>
+    <mergeCell ref="G46:N46"/>
+    <mergeCell ref="G47:N47"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="O71:O76"/>
+    <mergeCell ref="P71:P76"/>
+    <mergeCell ref="Q71:Q76"/>
+    <mergeCell ref="R71:R76"/>
+    <mergeCell ref="S71:S76"/>
+    <mergeCell ref="T71:T76"/>
+    <mergeCell ref="U71:U76"/>
+    <mergeCell ref="V71:V76"/>
+    <mergeCell ref="W71:W76"/>
+    <mergeCell ref="X71:X76"/>
     <mergeCell ref="Y71:AC76"/>
     <mergeCell ref="F71:N76"/>
     <mergeCell ref="O9:P9"/>
@@ -3976,50 +4003,23 @@
     <mergeCell ref="Q27:R27"/>
     <mergeCell ref="R29:S29"/>
     <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T71:T76"/>
-    <mergeCell ref="U71:U76"/>
-    <mergeCell ref="V71:V76"/>
-    <mergeCell ref="W71:W76"/>
-    <mergeCell ref="X71:X76"/>
-    <mergeCell ref="O71:O76"/>
-    <mergeCell ref="P71:P76"/>
-    <mergeCell ref="Q71:Q76"/>
-    <mergeCell ref="R71:R76"/>
-    <mergeCell ref="S71:S76"/>
-    <mergeCell ref="G46:N46"/>
-    <mergeCell ref="G47:N47"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="G40:N40"/>
-    <mergeCell ref="G41:N41"/>
-    <mergeCell ref="G42:N42"/>
-    <mergeCell ref="G44:N44"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="G32:N32"/>
-    <mergeCell ref="G35:N35"/>
-    <mergeCell ref="G37:N37"/>
-    <mergeCell ref="G38:N38"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="G26:N26"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="G24:N24"/>
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="F3:AC3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="O4:X4"/>
-    <mergeCell ref="Y4:AC4"/>
-    <mergeCell ref="C2:E3"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Q44:T44"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="S62:T62"/>
+    <mergeCell ref="Q45:T45"/>
+    <mergeCell ref="Q46:T46"/>
+    <mergeCell ref="Q47:T47"/>
+    <mergeCell ref="Q48:T48"/>
+    <mergeCell ref="Q49:T49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/document/Plan.xlsx
+++ b/document/Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="82">
   <si>
     <t xml:space="preserve">Project Manager: </t>
   </si>
@@ -247,13 +247,37 @@
   </si>
   <si>
     <t>28D</t>
+  </si>
+  <si>
+    <t>Khởi tạo(build base) Frontend</t>
+  </si>
+  <si>
+    <t>Viết UI Login</t>
+  </si>
+  <si>
+    <t>Viết UI Homepage</t>
+  </si>
+  <si>
+    <t>Viết UI quản lý YourWork</t>
+  </si>
+  <si>
+    <t>Viết UI quản lý Project</t>
+  </si>
+  <si>
+    <t>Viết UI quản lý Group</t>
+  </si>
+  <si>
+    <t>Viết UI DashBoard</t>
+  </si>
+  <si>
+    <t>Viết UI Filter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,13 +306,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -310,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,18 +354,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -583,17 +594,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -613,7 +634,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -655,141 +675,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -814,16 +701,142 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="2">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -845,13 +858,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -889,13 +902,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -933,7 +946,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="872739" cy="279800"/>
@@ -990,7 +1003,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1040798" cy="272180"/>
@@ -1047,7 +1060,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="912942" cy="272180"/>
@@ -1361,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:AC76"/>
+  <dimension ref="C1:AE82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="I46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC60" sqref="AC60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1377,115 +1390,122 @@
     <col min="14" max="14" width="9" customWidth="1"/>
     <col min="15" max="17" width="13.6640625" customWidth="1"/>
     <col min="19" max="21" width="9.6640625" customWidth="1"/>
-    <col min="23" max="24" width="9.6640625" customWidth="1"/>
-    <col min="28" max="28" width="11.6640625" customWidth="1"/>
-    <col min="29" max="29" width="16.33203125" customWidth="1"/>
+    <col min="23" max="26" width="9.6640625" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" customWidth="1"/>
+    <col min="31" max="31" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:29">
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="80" t="s">
+    <row r="1" spans="3:31" ht="15" thickBot="1"/>
+    <row r="2" spans="3:31">
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="81" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="81" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="82"/>
-    </row>
-    <row r="3" spans="3:29">
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="83" t="s">
+      <c r="AE2" s="36"/>
+    </row>
+    <row r="3" spans="3:31" ht="15" thickBot="1">
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="84"/>
-    </row>
-    <row r="4" spans="3:29">
-      <c r="C4" s="85" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="38"/>
+    </row>
+    <row r="4" spans="3:31" ht="15" thickBot="1">
+      <c r="C4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="88" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89" t="s">
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="85" t="s">
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="87"/>
-    </row>
-    <row r="5" spans="3:29">
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="41"/>
+    </row>
+    <row r="5" spans="3:31">
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -1500,7 +1520,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="31" t="s">
         <v>70</v>
       </c>
       <c r="P5" s="12"/>
@@ -1511,24 +1531,26 @@
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC5" s="21" t="s">
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE5" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:29">
+    <row r="6" spans="3:31">
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -1543,7 +1565,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="31" t="s">
         <v>70</v>
       </c>
       <c r="P6" s="12"/>
@@ -1554,18 +1576,20 @@
       <c r="U6" s="14"/>
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="24" t="s">
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="3:29">
+    <row r="7" spans="3:31">
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -1580,7 +1604,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="32" t="s">
+      <c r="O7" s="31" t="s">
         <v>70</v>
       </c>
       <c r="P7" s="12"/>
@@ -1591,18 +1615,20 @@
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
       <c r="W7" s="14"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="24" t="s">
+      <c r="X7" s="88"/>
+      <c r="Y7" s="88"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="3:29">
+    <row r="8" spans="3:31">
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -1624,14 +1650,16 @@
       <c r="U8" s="14"/>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="24"/>
-    </row>
-    <row r="9" spans="3:29">
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="23"/>
+    </row>
+    <row r="9" spans="3:31">
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -1646,10 +1674,10 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="58" t="s">
+      <c r="O9" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="P9" s="59"/>
+      <c r="P9" s="82"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
@@ -1657,24 +1685,26 @@
       <c r="U9" s="14"/>
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC9" s="24" t="s">
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE9" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="3:29">
+    <row r="10" spans="3:31">
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -1690,34 +1720,36 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="13"/>
-      <c r="P10" s="58" t="s">
+      <c r="P10" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="Q10" s="59"/>
+      <c r="Q10" s="82"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
       <c r="V10" s="14"/>
       <c r="W10" s="14"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC10" s="24" t="s">
+      <c r="X10" s="88"/>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE10" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="3:29">
+    <row r="11" spans="3:31">
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -1739,14 +1771,16 @@
       <c r="U11" s="14"/>
       <c r="V11" s="14"/>
       <c r="W11" s="14"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="24"/>
-    </row>
-    <row r="12" spans="3:29">
+      <c r="X11" s="88"/>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="23"/>
+    </row>
+    <row r="12" spans="3:31">
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -1762,30 +1796,30 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="22" t="s">
+      <c r="P12" s="83"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC12" s="24" t="s">
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE12" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="3:29">
+    <row r="13" spans="3:31">
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
@@ -1801,30 +1835,32 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="13"/>
-      <c r="P13" s="58" t="s">
+      <c r="P13" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="Q13" s="59"/>
+      <c r="Q13" s="82"/>
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="22" t="s">
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Z13" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="24" t="s">
+      <c r="AB13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="3:29">
+    <row r="14" spans="3:31">
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
@@ -1840,28 +1876,30 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="58" t="s">
+      <c r="P14" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="Q14" s="59"/>
+      <c r="Q14" s="82"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="24" t="s">
+      <c r="X14" s="88"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="3:29">
+    <row r="15" spans="3:31">
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -1877,30 +1915,32 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="13"/>
-      <c r="P15" s="58" t="s">
+      <c r="P15" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="Q15" s="59"/>
+      <c r="Q15" s="82"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
       <c r="W15" s="14"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="22" t="s">
+      <c r="X15" s="88"/>
+      <c r="Y15" s="88"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Z15" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="24" t="s">
+      <c r="AB15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="3:29">
+    <row r="16" spans="3:31">
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -1916,30 +1956,32 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="58" t="s">
+      <c r="P16" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="Q16" s="59"/>
+      <c r="Q16" s="82"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
       <c r="W16" s="14"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="23" t="s">
+      <c r="X16" s="88"/>
+      <c r="Y16" s="88"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AA16" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="24" t="s">
+      <c r="AC16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="3:29">
+    <row r="17" spans="3:31">
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -1955,30 +1997,30 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="13"/>
-      <c r="P17" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="23" t="s">
+      <c r="P17" s="83"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="92"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AA17" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="24" t="s">
+      <c r="AC17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="3:29">
+    <row r="18" spans="3:31">
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -2000,31 +2042,33 @@
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="27"/>
-    </row>
-    <row r="19" spans="3:29">
+      <c r="X18" s="88"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="26"/>
+    </row>
+    <row r="19" spans="3:31">
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="79" t="s">
+      <c r="G19" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
       <c r="O19" s="13"/>
       <c r="P19" s="14"/>
-      <c r="Q19" s="32" t="s">
+      <c r="Q19" s="31" t="s">
         <v>70</v>
       </c>
       <c r="R19" s="14"/>
@@ -2033,35 +2077,37 @@
       <c r="U19" s="14"/>
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="27" t="s">
+      <c r="X19" s="88"/>
+      <c r="Y19" s="88"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:29">
+    <row r="20" spans="3:31">
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="76" t="s">
+      <c r="G20" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
       <c r="O20" s="13"/>
       <c r="P20" s="14"/>
-      <c r="Q20" s="32" t="s">
+      <c r="Q20" s="31" t="s">
         <v>70</v>
       </c>
       <c r="R20" s="14"/>
@@ -2070,35 +2116,37 @@
       <c r="U20" s="14"/>
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="22" t="s">
+      <c r="X20" s="88"/>
+      <c r="Y20" s="88"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC20" s="24"/>
-    </row>
-    <row r="21" spans="3:29">
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE20" s="23"/>
+    </row>
+    <row r="21" spans="3:31">
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="76" t="s">
+      <c r="G21" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
       <c r="O21" s="13"/>
       <c r="P21" s="14"/>
-      <c r="Q21" s="32" t="s">
+      <c r="Q21" s="31" t="s">
         <v>70</v>
       </c>
       <c r="R21" s="14"/>
@@ -2107,35 +2155,37 @@
       <c r="U21" s="14"/>
       <c r="V21" s="14"/>
       <c r="W21" s="14"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="22" t="s">
+      <c r="X21" s="88"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC21" s="24"/>
-    </row>
-    <row r="22" spans="3:29">
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE21" s="23"/>
+    </row>
+    <row r="22" spans="3:31">
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="76" t="s">
+      <c r="G22" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
       <c r="O22" s="13"/>
       <c r="P22" s="14"/>
-      <c r="Q22" s="32" t="s">
+      <c r="Q22" s="31" t="s">
         <v>70</v>
       </c>
       <c r="R22" s="14"/>
@@ -2144,18 +2194,20 @@
       <c r="U22" s="14"/>
       <c r="V22" s="14"/>
       <c r="W22" s="14"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="25" t="s">
+      <c r="X22" s="88"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC22" s="27"/>
-    </row>
-    <row r="23" spans="3:29">
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE22" s="26"/>
+    </row>
+    <row r="23" spans="3:31">
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -2177,158 +2229,168 @@
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
       <c r="W23" s="14"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="24"/>
-    </row>
-    <row r="24" spans="3:29">
+      <c r="X23" s="88"/>
+      <c r="Y23" s="88"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="23"/>
+    </row>
+    <row r="24" spans="3:31">
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="78" t="s">
+      <c r="G24" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
       <c r="O24" s="13"/>
       <c r="P24" s="14"/>
-      <c r="Q24" s="58" t="s">
+      <c r="Q24" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="R24" s="59"/>
+      <c r="R24" s="82"/>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
       <c r="V24" s="14"/>
       <c r="W24" s="14"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="24"/>
-    </row>
-    <row r="25" spans="3:29">
+      <c r="X24" s="88"/>
+      <c r="Y24" s="88"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="23"/>
+    </row>
+    <row r="25" spans="3:31">
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="78" t="s">
+      <c r="G25" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="78"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
       <c r="O25" s="13"/>
       <c r="P25" s="14"/>
-      <c r="Q25" s="58" t="s">
+      <c r="Q25" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="R25" s="59"/>
+      <c r="R25" s="82"/>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
       <c r="V25" s="14"/>
       <c r="W25" s="14"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="24"/>
-    </row>
-    <row r="26" spans="3:29">
+      <c r="X25" s="88"/>
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="23"/>
+    </row>
+    <row r="26" spans="3:31">
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="78" t="s">
+      <c r="G26" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
       <c r="O26" s="13"/>
       <c r="P26" s="14"/>
-      <c r="Q26" s="58" t="s">
+      <c r="Q26" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="R26" s="59"/>
+      <c r="R26" s="82"/>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="22" t="s">
+      <c r="X26" s="88"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Z26" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="24"/>
-    </row>
-    <row r="27" spans="3:29">
+      <c r="AB26" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="23"/>
+    </row>
+    <row r="27" spans="3:31">
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="78" t="s">
+      <c r="G27" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
       <c r="O27" s="13"/>
       <c r="P27" s="14"/>
-      <c r="Q27" s="58" t="s">
+      <c r="Q27" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="R27" s="59"/>
+      <c r="R27" s="82"/>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="22" t="s">
+      <c r="X27" s="88"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Z27" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="23"/>
-      <c r="AC27" s="24"/>
-    </row>
-    <row r="28" spans="3:29">
+      <c r="AB27" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="23"/>
+    </row>
+    <row r="28" spans="3:31">
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -2350,156 +2412,166 @@
       <c r="U28" s="14"/>
       <c r="V28" s="14"/>
       <c r="W28" s="14"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="24"/>
-    </row>
-    <row r="29" spans="3:29">
+      <c r="X28" s="88"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="23"/>
+    </row>
+    <row r="29" spans="3:31">
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="78" t="s">
+      <c r="G29" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
       <c r="O29" s="13"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
-      <c r="R29" s="39" t="s">
+      <c r="R29" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="S29" s="41"/>
+      <c r="S29" s="85"/>
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
       <c r="V29" s="14"/>
       <c r="W29" s="14"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="22" t="s">
+      <c r="X29" s="88"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="24"/>
-    </row>
-    <row r="30" spans="3:29" ht="24" customHeight="1">
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="23"/>
+    </row>
+    <row r="30" spans="3:31" ht="24" customHeight="1">
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="78" t="s">
+      <c r="G30" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
       <c r="O30" s="13"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
-      <c r="R30" s="39" t="s">
+      <c r="R30" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="S30" s="41"/>
+      <c r="S30" s="85"/>
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
       <c r="V30" s="14"/>
       <c r="W30" s="14"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="22" t="s">
+      <c r="X30" s="88"/>
+      <c r="Y30" s="88"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Z30" s="23"/>
-      <c r="AA30" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB30" s="23"/>
-      <c r="AC30" s="24"/>
-    </row>
-    <row r="31" spans="3:29" ht="31.5" customHeight="1">
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="23"/>
+    </row>
+    <row r="31" spans="3:31" ht="31.5" customHeight="1">
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="77" t="s">
+      <c r="G31" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
       <c r="O31" s="13"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
-      <c r="R31" s="39" t="s">
+      <c r="R31" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="S31" s="41"/>
+      <c r="S31" s="85"/>
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
       <c r="W31" s="14"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="23"/>
-      <c r="AB31" s="23"/>
-      <c r="AC31" s="24"/>
-    </row>
-    <row r="32" spans="3:29">
+      <c r="X31" s="88"/>
+      <c r="Y31" s="88"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="23"/>
+    </row>
+    <row r="32" spans="3:31">
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="78" t="s">
+      <c r="G32" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
       <c r="O32" s="13"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
-      <c r="R32" s="39" t="s">
+      <c r="R32" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="S32" s="41"/>
+      <c r="S32" s="85"/>
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
       <c r="V32" s="14"/>
       <c r="W32" s="14"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="23"/>
-      <c r="AC32" s="24"/>
-    </row>
-    <row r="33" spans="3:29">
+      <c r="X32" s="88"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="23"/>
+    </row>
+    <row r="33" spans="3:31">
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -2521,14 +2593,16 @@
       <c r="U33" s="14"/>
       <c r="V33" s="14"/>
       <c r="W33" s="14"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="23"/>
-      <c r="AB33" s="23"/>
-      <c r="AC33" s="24"/>
-    </row>
-    <row r="34" spans="3:29">
+      <c r="X33" s="88"/>
+      <c r="Y33" s="88"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="23"/>
+    </row>
+    <row r="34" spans="3:31">
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -2550,47 +2624,53 @@
       <c r="U34" s="14"/>
       <c r="V34" s="14"/>
       <c r="W34" s="14"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="24"/>
-    </row>
-    <row r="35" spans="3:29">
+      <c r="X34" s="88"/>
+      <c r="Y34" s="88"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="23"/>
+    </row>
+    <row r="35" spans="3:31">
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="79" t="s">
+      <c r="G35" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
       <c r="O35" s="13"/>
       <c r="P35" s="14"/>
-      <c r="Q35" s="42" t="s">
+      <c r="Q35" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="R35" s="43"/>
-      <c r="S35" s="44"/>
+      <c r="R35" s="86"/>
+      <c r="S35" s="85"/>
       <c r="T35" s="14"/>
       <c r="U35" s="14"/>
       <c r="V35" s="14"/>
       <c r="W35" s="14"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="24"/>
-    </row>
-    <row r="36" spans="3:29">
+      <c r="X35" s="88"/>
+      <c r="Y35" s="88"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="23"/>
+    </row>
+    <row r="36" spans="3:31">
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -2612,232 +2692,244 @@
       <c r="U36" s="14"/>
       <c r="V36" s="14"/>
       <c r="W36" s="14"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="23"/>
-      <c r="AC36" s="24"/>
-    </row>
-    <row r="37" spans="3:29" ht="15" customHeight="1">
+      <c r="X36" s="88"/>
+      <c r="Y36" s="88"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="23"/>
+    </row>
+    <row r="37" spans="3:31" ht="15" customHeight="1">
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="76" t="s">
+      <c r="G37" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
       <c r="O37" s="13"/>
       <c r="P37" s="14"/>
-      <c r="Q37" s="39" t="s">
+      <c r="Q37" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="41"/>
+      <c r="R37" s="86"/>
+      <c r="S37" s="86"/>
+      <c r="T37" s="85"/>
       <c r="U37" s="14"/>
       <c r="V37" s="14"/>
       <c r="W37" s="14"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="25" t="s">
+      <c r="X37" s="88"/>
+      <c r="Y37" s="88"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="Z37" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA37" s="23"/>
-      <c r="AB37" s="23"/>
-      <c r="AC37" s="24"/>
-    </row>
-    <row r="38" spans="3:29" ht="39.75" customHeight="1">
+      <c r="AB37" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="23"/>
+    </row>
+    <row r="38" spans="3:31" ht="39.75" customHeight="1">
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="66" t="s">
+      <c r="G38" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
       <c r="O38" s="13"/>
       <c r="P38" s="14"/>
-      <c r="Q38" s="39" t="s">
+      <c r="Q38" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="41"/>
+      <c r="R38" s="86"/>
+      <c r="S38" s="86"/>
+      <c r="T38" s="85"/>
       <c r="U38" s="14"/>
       <c r="V38" s="14"/>
       <c r="W38" s="14"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="25" t="s">
+      <c r="X38" s="88"/>
+      <c r="Y38" s="88"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="Z38" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA38" s="23"/>
-      <c r="AB38" s="23"/>
-      <c r="AC38" s="24"/>
-    </row>
-    <row r="39" spans="3:29" ht="39" customHeight="1">
+      <c r="AB38" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="23"/>
+    </row>
+    <row r="39" spans="3:31" ht="39" customHeight="1">
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="66" t="s">
+      <c r="G39" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
       <c r="O39" s="13"/>
       <c r="P39" s="14"/>
-      <c r="Q39" s="39" t="s">
+      <c r="Q39" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="41"/>
+      <c r="R39" s="86"/>
+      <c r="S39" s="86"/>
+      <c r="T39" s="85"/>
       <c r="U39" s="14"/>
       <c r="V39" s="14"/>
       <c r="W39" s="14"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="25" t="s">
+      <c r="X39" s="88"/>
+      <c r="Y39" s="88"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="Z39" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA39" s="23"/>
-      <c r="AB39" s="23"/>
-      <c r="AC39" s="24"/>
-    </row>
-    <row r="40" spans="3:29" ht="39" customHeight="1">
+      <c r="AB39" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="23"/>
+    </row>
+    <row r="40" spans="3:31" ht="39" customHeight="1">
       <c r="C40" s="3"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="66" t="s">
+      <c r="G40" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
       <c r="O40" s="13"/>
       <c r="P40" s="14"/>
-      <c r="Q40" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="23"/>
-      <c r="AA40" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB40" s="23"/>
-      <c r="AC40" s="24"/>
-    </row>
-    <row r="41" spans="3:29" ht="39" customHeight="1">
+      <c r="Q40" s="87"/>
+      <c r="R40" s="89"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="89"/>
+      <c r="U40" s="89"/>
+      <c r="V40" s="89"/>
+      <c r="W40" s="89"/>
+      <c r="X40" s="89"/>
+      <c r="Y40" s="91"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="23"/>
+    </row>
+    <row r="41" spans="3:31" ht="39" customHeight="1">
       <c r="C41" s="3"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="66" t="s">
+      <c r="G41" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
       <c r="O41" s="13"/>
       <c r="P41" s="14"/>
-      <c r="Q41" s="39" t="s">
+      <c r="Q41" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="41"/>
+      <c r="R41" s="86"/>
+      <c r="S41" s="86"/>
+      <c r="T41" s="85"/>
       <c r="U41" s="14"/>
       <c r="V41" s="14"/>
       <c r="W41" s="14"/>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="25" t="s">
+      <c r="X41" s="88"/>
+      <c r="Y41" s="88"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="Z41" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA41" s="23"/>
-      <c r="AB41" s="23"/>
-      <c r="AC41" s="24"/>
-    </row>
-    <row r="42" spans="3:29" ht="38.25" customHeight="1">
+      <c r="AB41" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="23"/>
+    </row>
+    <row r="42" spans="3:31" ht="38.25" customHeight="1">
       <c r="C42" s="3"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="66" t="s">
+      <c r="G42" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
       <c r="O42" s="13"/>
       <c r="P42" s="14"/>
-      <c r="Q42" s="39" t="s">
+      <c r="Q42" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="41"/>
+      <c r="R42" s="86"/>
+      <c r="S42" s="86"/>
+      <c r="T42" s="85"/>
       <c r="U42" s="14"/>
       <c r="V42" s="14"/>
       <c r="W42" s="14"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA42" s="23"/>
-      <c r="AB42" s="23"/>
-      <c r="AC42" s="24"/>
-    </row>
-    <row r="43" spans="3:29" ht="36" customHeight="1">
+      <c r="X42" s="88"/>
+      <c r="Y42" s="88"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="23"/>
+    </row>
+    <row r="43" spans="3:31" ht="36" customHeight="1">
       <c r="C43" s="3"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -2859,47 +2951,51 @@
       <c r="U43" s="14"/>
       <c r="V43" s="14"/>
       <c r="W43" s="14"/>
-      <c r="X43" s="15"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="23"/>
-      <c r="AA43" s="23"/>
-      <c r="AB43" s="23"/>
-      <c r="AC43" s="24"/>
-    </row>
-    <row r="44" spans="3:29" ht="21.75" customHeight="1">
+      <c r="X43" s="88"/>
+      <c r="Y43" s="88"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="23"/>
+    </row>
+    <row r="44" spans="3:31" ht="21.75" customHeight="1">
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="66" t="s">
+      <c r="G44" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="66"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
       <c r="O44" s="13"/>
       <c r="P44" s="14"/>
-      <c r="Q44" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="23"/>
-      <c r="AA44" s="23"/>
-      <c r="AB44" s="23"/>
-      <c r="AC44" s="24"/>
-    </row>
-    <row r="45" spans="3:29">
+      <c r="Q44" s="87"/>
+      <c r="R44" s="89"/>
+      <c r="S44" s="89"/>
+      <c r="T44" s="89"/>
+      <c r="U44" s="89"/>
+      <c r="V44" s="89"/>
+      <c r="W44" s="89"/>
+      <c r="X44" s="89"/>
+      <c r="Y44" s="91"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB44" s="22"/>
+      <c r="AC44" s="22"/>
+      <c r="AD44" s="22"/>
+      <c r="AE44" s="23"/>
+    </row>
+    <row r="45" spans="3:31">
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
@@ -2916,89 +3012,95 @@
       <c r="N45" s="4"/>
       <c r="O45" s="13"/>
       <c r="P45" s="14"/>
-      <c r="Q45" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="22"/>
-      <c r="Z45" s="23"/>
-      <c r="AA45" s="23"/>
-      <c r="AB45" s="23"/>
-      <c r="AC45" s="24"/>
-    </row>
-    <row r="46" spans="3:29" ht="29.25" customHeight="1">
+      <c r="Q45" s="87"/>
+      <c r="R45" s="89"/>
+      <c r="S45" s="89"/>
+      <c r="T45" s="89"/>
+      <c r="U45" s="89"/>
+      <c r="V45" s="89"/>
+      <c r="W45" s="89"/>
+      <c r="X45" s="89"/>
+      <c r="Y45" s="91"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="22"/>
+      <c r="AD45" s="22"/>
+      <c r="AE45" s="23"/>
+    </row>
+    <row r="46" spans="3:31" ht="29.25" customHeight="1">
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
       <c r="E46" s="5"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="66" t="s">
+      <c r="G46" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="H46" s="66"/>
-      <c r="I46" s="66"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="66"/>
-      <c r="M46" s="66"/>
-      <c r="N46" s="66"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
       <c r="O46" s="13"/>
       <c r="P46" s="14"/>
-      <c r="Q46" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="17"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="15"/>
-      <c r="Y46" s="22"/>
-      <c r="Z46" s="23"/>
-      <c r="AA46" s="23"/>
-      <c r="AB46" s="23"/>
-      <c r="AC46" s="24"/>
-    </row>
-    <row r="47" spans="3:29" ht="118.5" customHeight="1">
+      <c r="Q46" s="87"/>
+      <c r="R46" s="89"/>
+      <c r="S46" s="89"/>
+      <c r="T46" s="89"/>
+      <c r="U46" s="89"/>
+      <c r="V46" s="89"/>
+      <c r="W46" s="89"/>
+      <c r="X46" s="89"/>
+      <c r="Y46" s="91"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="22"/>
+      <c r="AD46" s="22"/>
+      <c r="AE46" s="23"/>
+    </row>
+    <row r="47" spans="3:31" ht="118.5" customHeight="1">
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="66" t="s">
+      <c r="G47" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="66"/>
-      <c r="M47" s="66"/>
-      <c r="N47" s="66"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
       <c r="O47" s="13"/>
       <c r="P47" s="14"/>
-      <c r="Q47" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="17"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="23"/>
-      <c r="AA47" s="23"/>
-      <c r="AB47" s="23"/>
-      <c r="AC47" s="24"/>
-    </row>
-    <row r="48" spans="3:29">
+      <c r="Q47" s="87"/>
+      <c r="R47" s="89"/>
+      <c r="S47" s="89"/>
+      <c r="T47" s="89"/>
+      <c r="U47" s="89"/>
+      <c r="V47" s="89"/>
+      <c r="W47" s="89"/>
+      <c r="X47" s="89"/>
+      <c r="Y47" s="91"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22"/>
+      <c r="AE47" s="23"/>
+    </row>
+    <row r="48" spans="3:31">
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5"/>
@@ -3015,23 +3117,25 @@
       <c r="N48" s="4"/>
       <c r="O48" s="13"/>
       <c r="P48" s="14"/>
-      <c r="Q48" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="15"/>
-      <c r="Y48" s="22"/>
-      <c r="Z48" s="23"/>
-      <c r="AA48" s="23"/>
-      <c r="AB48" s="23"/>
-      <c r="AC48" s="24"/>
-    </row>
-    <row r="49" spans="3:29">
+      <c r="Q48" s="87"/>
+      <c r="R48" s="89"/>
+      <c r="S48" s="89"/>
+      <c r="T48" s="89"/>
+      <c r="U48" s="89"/>
+      <c r="V48" s="89"/>
+      <c r="W48" s="89"/>
+      <c r="X48" s="89"/>
+      <c r="Y48" s="91"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="22"/>
+      <c r="AD48" s="22"/>
+      <c r="AE48" s="23"/>
+    </row>
+    <row r="49" spans="3:31">
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
       <c r="E49" s="5"/>
@@ -3048,23 +3152,25 @@
       <c r="N49" s="4"/>
       <c r="O49" s="13"/>
       <c r="P49" s="14"/>
-      <c r="Q49" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="23"/>
-      <c r="AA49" s="23"/>
-      <c r="AB49" s="23"/>
-      <c r="AC49" s="24"/>
-    </row>
-    <row r="50" spans="3:29">
+      <c r="Q49" s="87"/>
+      <c r="R49" s="89"/>
+      <c r="S49" s="89"/>
+      <c r="T49" s="89"/>
+      <c r="U49" s="89"/>
+      <c r="V49" s="89"/>
+      <c r="W49" s="89"/>
+      <c r="X49" s="89"/>
+      <c r="Y49" s="91"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="23"/>
+    </row>
+    <row r="50" spans="3:31">
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5"/>
@@ -3086,14 +3192,16 @@
       <c r="U50" s="14"/>
       <c r="V50" s="14"/>
       <c r="W50" s="14"/>
-      <c r="X50" s="15"/>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="23"/>
-      <c r="AA50" s="23"/>
-      <c r="AB50" s="23"/>
-      <c r="AC50" s="24"/>
-    </row>
-    <row r="51" spans="3:29">
+      <c r="X50" s="88"/>
+      <c r="Y50" s="88"/>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="21"/>
+      <c r="AB50" s="22"/>
+      <c r="AC50" s="22"/>
+      <c r="AD50" s="22"/>
+      <c r="AE50" s="23"/>
+    </row>
+    <row r="51" spans="3:31">
       <c r="C51" s="3"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5"/>
@@ -3110,23 +3218,25 @@
       <c r="N51" s="4"/>
       <c r="O51" s="13"/>
       <c r="P51" s="14"/>
-      <c r="Q51" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="23"/>
-      <c r="AA51" s="23"/>
-      <c r="AB51" s="23"/>
-      <c r="AC51" s="24"/>
-    </row>
-    <row r="52" spans="3:29">
+      <c r="Q51" s="87"/>
+      <c r="R51" s="89"/>
+      <c r="S51" s="89"/>
+      <c r="T51" s="89"/>
+      <c r="U51" s="89"/>
+      <c r="V51" s="89"/>
+      <c r="W51" s="89"/>
+      <c r="X51" s="89"/>
+      <c r="Y51" s="91"/>
+      <c r="Z51" s="15"/>
+      <c r="AA51" s="21"/>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="22"/>
+      <c r="AD51" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE51" s="23"/>
+    </row>
+    <row r="52" spans="3:31">
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
@@ -3143,23 +3253,25 @@
       <c r="N52" s="4"/>
       <c r="O52" s="13"/>
       <c r="P52" s="14"/>
-      <c r="Q52" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
-      <c r="V52" s="14"/>
-      <c r="W52" s="14"/>
-      <c r="X52" s="15"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="23"/>
-      <c r="AA52" s="23"/>
-      <c r="AB52" s="23"/>
-      <c r="AC52" s="24"/>
-    </row>
-    <row r="53" spans="3:29">
+      <c r="Q52" s="87"/>
+      <c r="R52" s="89"/>
+      <c r="S52" s="89"/>
+      <c r="T52" s="89"/>
+      <c r="U52" s="89"/>
+      <c r="V52" s="89"/>
+      <c r="W52" s="89"/>
+      <c r="X52" s="89"/>
+      <c r="Y52" s="91"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="21"/>
+      <c r="AB52" s="22"/>
+      <c r="AC52" s="22"/>
+      <c r="AD52" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE52" s="23"/>
+    </row>
+    <row r="53" spans="3:31">
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5"/>
@@ -3176,23 +3288,25 @@
       <c r="N53" s="4"/>
       <c r="O53" s="13"/>
       <c r="P53" s="14"/>
-      <c r="Q53" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="14"/>
-      <c r="X53" s="15"/>
-      <c r="Y53" s="22"/>
-      <c r="Z53" s="23"/>
-      <c r="AA53" s="23"/>
-      <c r="AB53" s="23"/>
-      <c r="AC53" s="24"/>
-    </row>
-    <row r="54" spans="3:29">
+      <c r="Q53" s="87"/>
+      <c r="R53" s="89"/>
+      <c r="S53" s="89"/>
+      <c r="T53" s="89"/>
+      <c r="U53" s="89"/>
+      <c r="V53" s="89"/>
+      <c r="W53" s="89"/>
+      <c r="X53" s="89"/>
+      <c r="Y53" s="91"/>
+      <c r="Z53" s="15"/>
+      <c r="AA53" s="21"/>
+      <c r="AB53" s="22"/>
+      <c r="AC53" s="22"/>
+      <c r="AD53" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE53" s="23"/>
+    </row>
+    <row r="54" spans="3:31">
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
       <c r="E54" s="5"/>
@@ -3209,23 +3323,25 @@
       <c r="N54" s="4"/>
       <c r="O54" s="13"/>
       <c r="P54" s="14"/>
-      <c r="Q54" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="12"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
-      <c r="X54" s="15"/>
-      <c r="Y54" s="22"/>
-      <c r="Z54" s="23"/>
-      <c r="AA54" s="23"/>
-      <c r="AB54" s="23"/>
-      <c r="AC54" s="24"/>
-    </row>
-    <row r="55" spans="3:29">
+      <c r="Q54" s="87"/>
+      <c r="R54" s="89"/>
+      <c r="S54" s="89"/>
+      <c r="T54" s="89"/>
+      <c r="U54" s="89"/>
+      <c r="V54" s="89"/>
+      <c r="W54" s="89"/>
+      <c r="X54" s="89"/>
+      <c r="Y54" s="91"/>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="21"/>
+      <c r="AB54" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC54" s="22"/>
+      <c r="AD54" s="22"/>
+      <c r="AE54" s="23"/>
+    </row>
+    <row r="55" spans="3:31">
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
       <c r="E55" s="5"/>
@@ -3242,23 +3358,25 @@
       <c r="N55" s="4"/>
       <c r="O55" s="13"/>
       <c r="P55" s="14"/>
-      <c r="Q55" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="12"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="14"/>
-      <c r="X55" s="15"/>
-      <c r="Y55" s="22"/>
-      <c r="Z55" s="23"/>
-      <c r="AA55" s="23"/>
-      <c r="AB55" s="23"/>
-      <c r="AC55" s="24"/>
-    </row>
-    <row r="56" spans="3:29">
+      <c r="Q55" s="87"/>
+      <c r="R55" s="89"/>
+      <c r="S55" s="89"/>
+      <c r="T55" s="89"/>
+      <c r="U55" s="89"/>
+      <c r="V55" s="89"/>
+      <c r="W55" s="89"/>
+      <c r="X55" s="89"/>
+      <c r="Y55" s="91"/>
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="21"/>
+      <c r="AB55" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="22"/>
+      <c r="AE55" s="23"/>
+    </row>
+    <row r="56" spans="3:31">
       <c r="C56" s="3"/>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
@@ -3275,23 +3393,25 @@
       <c r="N56" s="4"/>
       <c r="O56" s="13"/>
       <c r="P56" s="14"/>
-      <c r="Q56" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="12"/>
-      <c r="V56" s="14"/>
-      <c r="W56" s="14"/>
-      <c r="X56" s="15"/>
-      <c r="Y56" s="22"/>
-      <c r="Z56" s="23"/>
-      <c r="AA56" s="23"/>
-      <c r="AB56" s="23"/>
-      <c r="AC56" s="24"/>
-    </row>
-    <row r="57" spans="3:29">
+      <c r="Q56" s="87"/>
+      <c r="R56" s="89"/>
+      <c r="S56" s="89"/>
+      <c r="T56" s="89"/>
+      <c r="U56" s="89"/>
+      <c r="V56" s="89"/>
+      <c r="W56" s="89"/>
+      <c r="X56" s="89"/>
+      <c r="Y56" s="91"/>
+      <c r="Z56" s="15"/>
+      <c r="AA56" s="21"/>
+      <c r="AB56" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="22"/>
+      <c r="AE56" s="23"/>
+    </row>
+    <row r="57" spans="3:31">
       <c r="C57" s="3"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5"/>
@@ -3308,23 +3428,25 @@
       <c r="N57" s="4"/>
       <c r="O57" s="13"/>
       <c r="P57" s="14"/>
-      <c r="Q57" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="14"/>
-      <c r="W57" s="14"/>
-      <c r="X57" s="15"/>
-      <c r="Y57" s="22"/>
-      <c r="Z57" s="23"/>
-      <c r="AA57" s="23"/>
-      <c r="AB57" s="23"/>
-      <c r="AC57" s="24"/>
-    </row>
-    <row r="58" spans="3:29">
+      <c r="Q57" s="87"/>
+      <c r="R57" s="89"/>
+      <c r="S57" s="89"/>
+      <c r="T57" s="89"/>
+      <c r="U57" s="89"/>
+      <c r="V57" s="89"/>
+      <c r="W57" s="89"/>
+      <c r="X57" s="89"/>
+      <c r="Y57" s="91"/>
+      <c r="Z57" s="15"/>
+      <c r="AA57" s="21"/>
+      <c r="AB57" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC57" s="22"/>
+      <c r="AD57" s="22"/>
+      <c r="AE57" s="23"/>
+    </row>
+    <row r="58" spans="3:31">
       <c r="C58" s="3"/>
       <c r="D58" s="4"/>
       <c r="E58" s="5"/>
@@ -3348,14 +3470,16 @@
       <c r="U58" s="14"/>
       <c r="V58" s="14"/>
       <c r="W58" s="14"/>
-      <c r="X58" s="15"/>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="23"/>
-      <c r="AA58" s="23"/>
-      <c r="AB58" s="23"/>
-      <c r="AC58" s="24"/>
-    </row>
-    <row r="59" spans="3:29">
+      <c r="X58" s="88"/>
+      <c r="Y58" s="88"/>
+      <c r="Z58" s="15"/>
+      <c r="AA58" s="21"/>
+      <c r="AB58" s="22"/>
+      <c r="AC58" s="22"/>
+      <c r="AD58" s="22"/>
+      <c r="AE58" s="23"/>
+    </row>
+    <row r="59" spans="3:31">
       <c r="C59" s="3"/>
       <c r="D59" s="4"/>
       <c r="E59" s="5"/>
@@ -3379,14 +3503,16 @@
       <c r="U59" s="14"/>
       <c r="V59" s="14"/>
       <c r="W59" s="14"/>
-      <c r="X59" s="15"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="23"/>
-      <c r="AA59" s="23"/>
-      <c r="AB59" s="23"/>
-      <c r="AC59" s="24"/>
-    </row>
-    <row r="60" spans="3:29">
+      <c r="X59" s="88"/>
+      <c r="Y59" s="88"/>
+      <c r="Z59" s="15"/>
+      <c r="AA59" s="21"/>
+      <c r="AB59" s="22"/>
+      <c r="AC59" s="22"/>
+      <c r="AD59" s="22"/>
+      <c r="AE59" s="23"/>
+    </row>
+    <row r="60" spans="3:31">
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5"/>
@@ -3408,14 +3534,16 @@
       <c r="U60" s="14"/>
       <c r="V60" s="14"/>
       <c r="W60" s="14"/>
-      <c r="X60" s="15"/>
-      <c r="Y60" s="22"/>
-      <c r="Z60" s="23"/>
-      <c r="AA60" s="23"/>
-      <c r="AB60" s="23"/>
-      <c r="AC60" s="24"/>
-    </row>
-    <row r="61" spans="3:29">
+      <c r="X60" s="88"/>
+      <c r="Y60" s="88"/>
+      <c r="Z60" s="15"/>
+      <c r="AA60" s="21"/>
+      <c r="AB60" s="22"/>
+      <c r="AC60" s="22"/>
+      <c r="AD60" s="22"/>
+      <c r="AE60" s="23"/>
+    </row>
+    <row r="61" spans="3:31">
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
       <c r="E61" s="5"/>
@@ -3432,23 +3560,23 @@
       <c r="N61" s="4"/>
       <c r="O61" s="13"/>
       <c r="P61" s="14"/>
-      <c r="Q61" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="R61" s="35"/>
-      <c r="S61" s="12"/>
-      <c r="T61" s="12"/>
-      <c r="U61" s="12"/>
-      <c r="V61" s="12"/>
-      <c r="W61" s="14"/>
-      <c r="X61" s="15"/>
-      <c r="Y61" s="22"/>
-      <c r="Z61" s="23"/>
-      <c r="AA61" s="23"/>
-      <c r="AB61" s="23"/>
-      <c r="AC61" s="24"/>
-    </row>
-    <row r="62" spans="3:29">
+      <c r="Q61" s="87"/>
+      <c r="R61" s="89"/>
+      <c r="S61" s="89"/>
+      <c r="T61" s="89"/>
+      <c r="U61" s="89"/>
+      <c r="V61" s="89"/>
+      <c r="W61" s="89"/>
+      <c r="X61" s="89"/>
+      <c r="Y61" s="91"/>
+      <c r="Z61" s="15"/>
+      <c r="AA61" s="21"/>
+      <c r="AB61" s="22"/>
+      <c r="AC61" s="22"/>
+      <c r="AD61" s="22"/>
+      <c r="AE61" s="23"/>
+    </row>
+    <row r="62" spans="3:31">
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
       <c r="E62" s="5"/>
@@ -3467,21 +3595,21 @@
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
       <c r="R62" s="12"/>
-      <c r="S62" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="T62" s="35"/>
-      <c r="U62" s="17"/>
-      <c r="V62" s="17"/>
-      <c r="W62" s="14"/>
-      <c r="X62" s="15"/>
-      <c r="Y62" s="22"/>
-      <c r="Z62" s="23"/>
-      <c r="AA62" s="23"/>
-      <c r="AB62" s="23"/>
-      <c r="AC62" s="24"/>
-    </row>
-    <row r="63" spans="3:29">
+      <c r="S62" s="83"/>
+      <c r="T62" s="90"/>
+      <c r="U62" s="90"/>
+      <c r="V62" s="90"/>
+      <c r="W62" s="90"/>
+      <c r="X62" s="92"/>
+      <c r="Y62" s="91"/>
+      <c r="Z62" s="15"/>
+      <c r="AA62" s="21"/>
+      <c r="AB62" s="22"/>
+      <c r="AC62" s="22"/>
+      <c r="AD62" s="22"/>
+      <c r="AE62" s="23"/>
+    </row>
+    <row r="63" spans="3:31">
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
       <c r="E63" s="5"/>
@@ -3503,14 +3631,16 @@
       <c r="U63" s="14"/>
       <c r="V63" s="14"/>
       <c r="W63" s="14"/>
-      <c r="X63" s="15"/>
-      <c r="Y63" s="22"/>
-      <c r="Z63" s="23"/>
-      <c r="AA63" s="23"/>
-      <c r="AB63" s="23"/>
-      <c r="AC63" s="24"/>
-    </row>
-    <row r="64" spans="3:29">
+      <c r="X63" s="88"/>
+      <c r="Y63" s="88"/>
+      <c r="Z63" s="15"/>
+      <c r="AA63" s="21"/>
+      <c r="AB63" s="22"/>
+      <c r="AC63" s="22"/>
+      <c r="AD63" s="22"/>
+      <c r="AE63" s="23"/>
+    </row>
+    <row r="64" spans="3:31">
       <c r="C64" s="3"/>
       <c r="D64" s="4"/>
       <c r="E64" s="5"/>
@@ -3527,7 +3657,7 @@
       <c r="N64" s="4"/>
       <c r="O64" s="13"/>
       <c r="P64" s="14"/>
-      <c r="Q64" s="32" t="s">
+      <c r="Q64" s="31" t="s">
         <v>70</v>
       </c>
       <c r="R64" s="14"/>
@@ -3536,18 +3666,20 @@
       <c r="U64" s="14"/>
       <c r="V64" s="14"/>
       <c r="W64" s="14"/>
-      <c r="X64" s="15"/>
-      <c r="Y64" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z64" s="23"/>
-      <c r="AA64" s="23"/>
-      <c r="AB64" s="23"/>
-      <c r="AC64" s="24" t="s">
+      <c r="X64" s="88"/>
+      <c r="Y64" s="88"/>
+      <c r="Z64" s="15"/>
+      <c r="AA64" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB64" s="22"/>
+      <c r="AC64" s="22"/>
+      <c r="AD64" s="22"/>
+      <c r="AE64" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="3:29">
+    <row r="65" spans="3:31">
       <c r="C65" s="3"/>
       <c r="D65" s="4"/>
       <c r="E65" s="5"/>
@@ -3564,7 +3696,7 @@
       <c r="N65" s="4"/>
       <c r="O65" s="13"/>
       <c r="P65" s="14"/>
-      <c r="Q65" s="32" t="s">
+      <c r="Q65" s="31" t="s">
         <v>70</v>
       </c>
       <c r="R65" s="14"/>
@@ -3573,18 +3705,20 @@
       <c r="U65" s="14"/>
       <c r="V65" s="14"/>
       <c r="W65" s="14"/>
-      <c r="X65" s="15"/>
-      <c r="Y65" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z65" s="23"/>
-      <c r="AA65" s="23"/>
-      <c r="AB65" s="23"/>
-      <c r="AC65" s="24" t="s">
+      <c r="X65" s="88"/>
+      <c r="Y65" s="88"/>
+      <c r="Z65" s="15"/>
+      <c r="AA65" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB65" s="22"/>
+      <c r="AC65" s="22"/>
+      <c r="AD65" s="22"/>
+      <c r="AE65" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="3:29">
+    <row r="66" spans="3:31">
       <c r="C66" s="3"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5"/>
@@ -3606,389 +3740,630 @@
       <c r="U66" s="14"/>
       <c r="V66" s="14"/>
       <c r="W66" s="14"/>
-      <c r="X66" s="15"/>
-      <c r="Y66" s="22"/>
-      <c r="Z66" s="23"/>
-      <c r="AA66" s="23"/>
-      <c r="AB66" s="23"/>
-      <c r="AC66" s="24"/>
-    </row>
-    <row r="67" spans="3:29">
+      <c r="X66" s="88"/>
+      <c r="Y66" s="88"/>
+      <c r="Z66" s="15"/>
+      <c r="AA66" s="21"/>
+      <c r="AB66" s="22"/>
+      <c r="AC66" s="22"/>
+      <c r="AD66" s="22"/>
+      <c r="AE66" s="23"/>
+    </row>
+    <row r="67" spans="3:31">
       <c r="C67" s="3"/>
-      <c r="D67" s="4"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="5"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
+      <c r="G67" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
       <c r="O67" s="13"/>
       <c r="P67" s="14"/>
-      <c r="Q67" s="14"/>
-      <c r="R67" s="14"/>
+      <c r="Q67" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="R67" s="82"/>
       <c r="S67" s="14"/>
       <c r="T67" s="14"/>
       <c r="U67" s="14"/>
       <c r="V67" s="14"/>
       <c r="W67" s="14"/>
-      <c r="X67" s="15"/>
-      <c r="Y67" s="22"/>
-      <c r="Z67" s="23"/>
-      <c r="AA67" s="23"/>
-      <c r="AB67" s="23"/>
-      <c r="AC67" s="24"/>
-    </row>
-    <row r="68" spans="3:29">
+      <c r="X67" s="88"/>
+      <c r="Y67" s="88"/>
+      <c r="Z67" s="15"/>
+      <c r="AA67" s="21"/>
+      <c r="AB67" s="22"/>
+      <c r="AC67" s="22"/>
+      <c r="AD67" s="22"/>
+      <c r="AE67" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="3:31">
       <c r="C68" s="3"/>
-      <c r="D68" s="4"/>
+      <c r="D68" s="32"/>
       <c r="E68" s="5"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
+      <c r="G68" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
       <c r="O68" s="13"/>
       <c r="P68" s="14"/>
-      <c r="Q68" s="14"/>
-      <c r="R68" s="14"/>
+      <c r="Q68" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="R68" s="82"/>
       <c r="S68" s="14"/>
       <c r="T68" s="14"/>
       <c r="U68" s="14"/>
       <c r="V68" s="14"/>
       <c r="W68" s="14"/>
-      <c r="X68" s="15"/>
-      <c r="Y68" s="22"/>
-      <c r="Z68" s="23"/>
-      <c r="AA68" s="23"/>
-      <c r="AB68" s="23"/>
-      <c r="AC68" s="24"/>
-    </row>
-    <row r="69" spans="3:29">
+      <c r="X68" s="88"/>
+      <c r="Y68" s="88"/>
+      <c r="Z68" s="15"/>
+      <c r="AA68" s="21"/>
+      <c r="AB68" s="22"/>
+      <c r="AC68" s="22"/>
+      <c r="AD68" s="22"/>
+      <c r="AE68" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="3:31">
       <c r="C69" s="3"/>
-      <c r="D69" s="4"/>
+      <c r="D69" s="32"/>
       <c r="E69" s="5"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
+      <c r="G69" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="32"/>
       <c r="O69" s="13"/>
       <c r="P69" s="14"/>
-      <c r="Q69" s="14"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="14"/>
+      <c r="R69" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="S69" s="82"/>
       <c r="T69" s="14"/>
       <c r="U69" s="14"/>
       <c r="V69" s="14"/>
       <c r="W69" s="14"/>
-      <c r="X69" s="15"/>
-      <c r="Y69" s="22"/>
-      <c r="Z69" s="23"/>
-      <c r="AA69" s="23"/>
-      <c r="AB69" s="23"/>
-      <c r="AC69" s="24"/>
-    </row>
-    <row r="70" spans="3:29">
-      <c r="C70" s="28"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="X69" s="88"/>
+      <c r="Y69" s="88"/>
+      <c r="Z69" s="15"/>
+      <c r="AA69" s="21"/>
+      <c r="AB69" s="22"/>
+      <c r="AC69" s="22"/>
+      <c r="AD69" s="22"/>
+      <c r="AE69" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="3:31">
+      <c r="C70" s="3"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="32"/>
       <c r="O70" s="13"/>
       <c r="P70" s="14"/>
       <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="14"/>
+      <c r="R70" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="S70" s="82"/>
       <c r="T70" s="14"/>
       <c r="U70" s="14"/>
       <c r="V70" s="14"/>
       <c r="W70" s="14"/>
-      <c r="X70" s="15"/>
-      <c r="Y70" s="29" t="s">
+      <c r="X70" s="88"/>
+      <c r="Y70" s="88"/>
+      <c r="Z70" s="15"/>
+      <c r="AA70" s="21"/>
+      <c r="AB70" s="22"/>
+      <c r="AC70" s="22"/>
+      <c r="AD70" s="22"/>
+      <c r="AE70" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="3:31">
+      <c r="C71" s="3"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="32"/>
+      <c r="N71" s="32"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="T71" s="82"/>
+      <c r="U71" s="14"/>
+      <c r="V71" s="14"/>
+      <c r="W71" s="14"/>
+      <c r="X71" s="88"/>
+      <c r="Y71" s="88"/>
+      <c r="Z71" s="15"/>
+      <c r="AA71" s="21"/>
+      <c r="AB71" s="22"/>
+      <c r="AC71" s="22"/>
+      <c r="AD71" s="22"/>
+      <c r="AE71" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="3:31">
+      <c r="C72" s="3"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="T72" s="82"/>
+      <c r="U72" s="14"/>
+      <c r="V72" s="14"/>
+      <c r="W72" s="14"/>
+      <c r="X72" s="88"/>
+      <c r="Y72" s="88"/>
+      <c r="Z72" s="15"/>
+      <c r="AA72" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB72" s="22"/>
+      <c r="AC72" s="22"/>
+      <c r="AD72" s="22"/>
+      <c r="AE72" s="23"/>
+    </row>
+    <row r="73" spans="3:31">
+      <c r="C73" s="3"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="83"/>
+      <c r="T73" s="90"/>
+      <c r="U73" s="90"/>
+      <c r="V73" s="90"/>
+      <c r="W73" s="90"/>
+      <c r="X73" s="92"/>
+      <c r="Y73" s="91"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="21"/>
+      <c r="AB73" s="22"/>
+      <c r="AC73" s="22"/>
+      <c r="AD73" s="22"/>
+      <c r="AE73" s="23"/>
+    </row>
+    <row r="74" spans="3:31">
+      <c r="C74" s="3"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="32"/>
+      <c r="N74" s="32"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="83"/>
+      <c r="T74" s="90"/>
+      <c r="U74" s="90"/>
+      <c r="V74" s="90"/>
+      <c r="W74" s="90"/>
+      <c r="X74" s="92"/>
+      <c r="Y74" s="91"/>
+      <c r="Z74" s="15"/>
+      <c r="AA74" s="21"/>
+      <c r="AB74" s="22"/>
+      <c r="AC74" s="22"/>
+      <c r="AD74" s="22"/>
+      <c r="AE74" s="23"/>
+    </row>
+    <row r="75" spans="3:31" ht="15" thickBot="1">
+      <c r="C75" s="3"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="14"/>
+      <c r="T75" s="14"/>
+      <c r="U75" s="14"/>
+      <c r="V75" s="14"/>
+      <c r="W75" s="14"/>
+      <c r="X75" s="88"/>
+      <c r="Y75" s="88"/>
+      <c r="Z75" s="15"/>
+      <c r="AA75" s="21"/>
+      <c r="AB75" s="22"/>
+      <c r="AC75" s="22"/>
+      <c r="AD75" s="22"/>
+      <c r="AE75" s="23"/>
+    </row>
+    <row r="76" spans="3:31" ht="15" thickBot="1">
+      <c r="C76" s="27"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="14"/>
+      <c r="T76" s="14"/>
+      <c r="U76" s="14"/>
+      <c r="V76" s="14"/>
+      <c r="W76" s="14"/>
+      <c r="X76" s="88"/>
+      <c r="Y76" s="88"/>
+      <c r="Z76" s="15"/>
+      <c r="AA76" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="Z70" s="30" t="s">
+      <c r="AB76" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AA70" s="30" t="s">
+      <c r="AC76" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AB70" s="30" t="s">
+      <c r="AD76" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="AC70" s="31" t="s">
+      <c r="AE76" s="30" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="3:29">
-      <c r="C71" s="67" t="s">
+    <row r="77" spans="3:31" ht="14.4" customHeight="1">
+      <c r="C77" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="70" t="s">
+      <c r="D77" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="E71" s="73" t="s">
+      <c r="E77" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="53"/>
-      <c r="L71" s="53"/>
-      <c r="M71" s="53"/>
-      <c r="N71" s="53"/>
-      <c r="O71" s="64">
+      <c r="F77" s="46"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="66">
         <v>43969</v>
       </c>
-      <c r="P71" s="60">
+      <c r="P77" s="68">
         <v>43976</v>
       </c>
-      <c r="Q71" s="60">
+      <c r="Q77" s="68">
         <v>43983</v>
       </c>
-      <c r="R71" s="60">
+      <c r="R77" s="68">
         <v>43990</v>
       </c>
-      <c r="S71" s="60">
+      <c r="S77" s="68">
         <v>43997</v>
       </c>
-      <c r="T71" s="60">
+      <c r="T77" s="68">
         <v>44004</v>
       </c>
-      <c r="U71" s="60">
+      <c r="U77" s="68">
         <v>44011</v>
       </c>
-      <c r="V71" s="60">
+      <c r="V77" s="68">
         <v>44018</v>
       </c>
-      <c r="W71" s="60">
+      <c r="W77" s="68">
         <v>44025</v>
       </c>
-      <c r="X71" s="62">
+      <c r="X77" s="70">
         <v>44032</v>
       </c>
-      <c r="Y71" s="45" t="s">
+      <c r="Y77" s="70">
+        <v>44053</v>
+      </c>
+      <c r="Z77" s="70">
+        <v>44060</v>
+      </c>
+      <c r="AA77" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="Z71" s="46"/>
-      <c r="AA71" s="46"/>
-      <c r="AB71" s="46"/>
-      <c r="AC71" s="47"/>
-    </row>
-    <row r="72" spans="3:29">
-      <c r="C72" s="68"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="55"/>
-      <c r="I72" s="55"/>
-      <c r="J72" s="55"/>
-      <c r="K72" s="55"/>
-      <c r="L72" s="55"/>
-      <c r="M72" s="55"/>
-      <c r="N72" s="55"/>
-      <c r="O72" s="64"/>
-      <c r="P72" s="60"/>
-      <c r="Q72" s="60"/>
-      <c r="R72" s="60"/>
-      <c r="S72" s="60"/>
-      <c r="T72" s="60"/>
-      <c r="U72" s="60"/>
-      <c r="V72" s="60"/>
-      <c r="W72" s="60"/>
-      <c r="X72" s="62"/>
-      <c r="Y72" s="48"/>
-      <c r="Z72" s="46"/>
-      <c r="AA72" s="46"/>
-      <c r="AB72" s="46"/>
-      <c r="AC72" s="47"/>
-    </row>
-    <row r="73" spans="3:29">
-      <c r="C73" s="68"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="55"/>
-      <c r="K73" s="55"/>
-      <c r="L73" s="55"/>
-      <c r="M73" s="55"/>
-      <c r="N73" s="55"/>
-      <c r="O73" s="64"/>
-      <c r="P73" s="60"/>
-      <c r="Q73" s="60"/>
-      <c r="R73" s="60"/>
-      <c r="S73" s="60"/>
-      <c r="T73" s="60"/>
-      <c r="U73" s="60"/>
-      <c r="V73" s="60"/>
-      <c r="W73" s="60"/>
-      <c r="X73" s="62"/>
-      <c r="Y73" s="48"/>
-      <c r="Z73" s="46"/>
-      <c r="AA73" s="46"/>
-      <c r="AB73" s="46"/>
-      <c r="AC73" s="47"/>
-    </row>
-    <row r="74" spans="3:29">
-      <c r="C74" s="68"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="55"/>
-      <c r="K74" s="55"/>
-      <c r="L74" s="55"/>
-      <c r="M74" s="55"/>
-      <c r="N74" s="55"/>
-      <c r="O74" s="64"/>
-      <c r="P74" s="60"/>
-      <c r="Q74" s="60"/>
-      <c r="R74" s="60"/>
-      <c r="S74" s="60"/>
-      <c r="T74" s="60"/>
-      <c r="U74" s="60"/>
-      <c r="V74" s="60"/>
-      <c r="W74" s="60"/>
-      <c r="X74" s="62"/>
-      <c r="Y74" s="48"/>
-      <c r="Z74" s="46"/>
-      <c r="AA74" s="46"/>
-      <c r="AB74" s="46"/>
-      <c r="AC74" s="47"/>
-    </row>
-    <row r="75" spans="3:29">
-      <c r="C75" s="68"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="55"/>
-      <c r="K75" s="55"/>
-      <c r="L75" s="55"/>
-      <c r="M75" s="55"/>
-      <c r="N75" s="55"/>
-      <c r="O75" s="64"/>
-      <c r="P75" s="60"/>
-      <c r="Q75" s="60"/>
-      <c r="R75" s="60"/>
-      <c r="S75" s="60"/>
-      <c r="T75" s="60"/>
-      <c r="U75" s="60"/>
-      <c r="V75" s="60"/>
-      <c r="W75" s="60"/>
-      <c r="X75" s="62"/>
-      <c r="Y75" s="48"/>
-      <c r="Z75" s="46"/>
-      <c r="AA75" s="46"/>
-      <c r="AB75" s="46"/>
-      <c r="AC75" s="47"/>
-    </row>
-    <row r="76" spans="3:29">
-      <c r="C76" s="69"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="57"/>
-      <c r="J76" s="57"/>
-      <c r="K76" s="57"/>
-      <c r="L76" s="57"/>
-      <c r="M76" s="57"/>
-      <c r="N76" s="57"/>
-      <c r="O76" s="65"/>
-      <c r="P76" s="61"/>
-      <c r="Q76" s="61"/>
-      <c r="R76" s="61"/>
-      <c r="S76" s="61"/>
-      <c r="T76" s="61"/>
-      <c r="U76" s="61"/>
-      <c r="V76" s="61"/>
-      <c r="W76" s="61"/>
-      <c r="X76" s="63"/>
-      <c r="Y76" s="49"/>
-      <c r="Z76" s="50"/>
-      <c r="AA76" s="50"/>
-      <c r="AB76" s="50"/>
-      <c r="AC76" s="51"/>
+      <c r="AB77" s="73"/>
+      <c r="AC77" s="73"/>
+      <c r="AD77" s="73"/>
+      <c r="AE77" s="74"/>
+    </row>
+    <row r="78" spans="3:31">
+      <c r="C78" s="58"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="80"/>
+      <c r="H78" s="80"/>
+      <c r="I78" s="80"/>
+      <c r="J78" s="80"/>
+      <c r="K78" s="80"/>
+      <c r="L78" s="80"/>
+      <c r="M78" s="80"/>
+      <c r="N78" s="80"/>
+      <c r="O78" s="66"/>
+      <c r="P78" s="68"/>
+      <c r="Q78" s="68"/>
+      <c r="R78" s="68"/>
+      <c r="S78" s="68"/>
+      <c r="T78" s="68"/>
+      <c r="U78" s="68"/>
+      <c r="V78" s="68"/>
+      <c r="W78" s="68"/>
+      <c r="X78" s="70"/>
+      <c r="Y78" s="70"/>
+      <c r="Z78" s="70"/>
+      <c r="AA78" s="75"/>
+      <c r="AB78" s="73"/>
+      <c r="AC78" s="73"/>
+      <c r="AD78" s="73"/>
+      <c r="AE78" s="74"/>
+    </row>
+    <row r="79" spans="3:31">
+      <c r="C79" s="58"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="79"/>
+      <c r="G79" s="80"/>
+      <c r="H79" s="80"/>
+      <c r="I79" s="80"/>
+      <c r="J79" s="80"/>
+      <c r="K79" s="80"/>
+      <c r="L79" s="80"/>
+      <c r="M79" s="80"/>
+      <c r="N79" s="80"/>
+      <c r="O79" s="66"/>
+      <c r="P79" s="68"/>
+      <c r="Q79" s="68"/>
+      <c r="R79" s="68"/>
+      <c r="S79" s="68"/>
+      <c r="T79" s="68"/>
+      <c r="U79" s="68"/>
+      <c r="V79" s="68"/>
+      <c r="W79" s="68"/>
+      <c r="X79" s="70"/>
+      <c r="Y79" s="70"/>
+      <c r="Z79" s="70"/>
+      <c r="AA79" s="75"/>
+      <c r="AB79" s="73"/>
+      <c r="AC79" s="73"/>
+      <c r="AD79" s="73"/>
+      <c r="AE79" s="74"/>
+    </row>
+    <row r="80" spans="3:31" ht="14.4" customHeight="1">
+      <c r="C80" s="58"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="79"/>
+      <c r="G80" s="80"/>
+      <c r="H80" s="80"/>
+      <c r="I80" s="80"/>
+      <c r="J80" s="80"/>
+      <c r="K80" s="80"/>
+      <c r="L80" s="80"/>
+      <c r="M80" s="80"/>
+      <c r="N80" s="80"/>
+      <c r="O80" s="66"/>
+      <c r="P80" s="68"/>
+      <c r="Q80" s="68"/>
+      <c r="R80" s="68"/>
+      <c r="S80" s="68"/>
+      <c r="T80" s="68"/>
+      <c r="U80" s="68"/>
+      <c r="V80" s="68"/>
+      <c r="W80" s="68"/>
+      <c r="X80" s="70"/>
+      <c r="Y80" s="70"/>
+      <c r="Z80" s="70"/>
+      <c r="AA80" s="75"/>
+      <c r="AB80" s="73"/>
+      <c r="AC80" s="73"/>
+      <c r="AD80" s="73"/>
+      <c r="AE80" s="74"/>
+    </row>
+    <row r="81" spans="3:31">
+      <c r="C81" s="58"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="79"/>
+      <c r="G81" s="80"/>
+      <c r="H81" s="80"/>
+      <c r="I81" s="80"/>
+      <c r="J81" s="80"/>
+      <c r="K81" s="80"/>
+      <c r="L81" s="80"/>
+      <c r="M81" s="80"/>
+      <c r="N81" s="80"/>
+      <c r="O81" s="66"/>
+      <c r="P81" s="68"/>
+      <c r="Q81" s="68"/>
+      <c r="R81" s="68"/>
+      <c r="S81" s="68"/>
+      <c r="T81" s="68"/>
+      <c r="U81" s="68"/>
+      <c r="V81" s="68"/>
+      <c r="W81" s="68"/>
+      <c r="X81" s="70"/>
+      <c r="Y81" s="70"/>
+      <c r="Z81" s="70"/>
+      <c r="AA81" s="75"/>
+      <c r="AB81" s="73"/>
+      <c r="AC81" s="73"/>
+      <c r="AD81" s="73"/>
+      <c r="AE81" s="74"/>
+    </row>
+    <row r="82" spans="3:31" ht="15" thickBot="1">
+      <c r="C82" s="59"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="50"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="50"/>
+      <c r="L82" s="50"/>
+      <c r="M82" s="50"/>
+      <c r="N82" s="50"/>
+      <c r="O82" s="67"/>
+      <c r="P82" s="69"/>
+      <c r="Q82" s="69"/>
+      <c r="R82" s="69"/>
+      <c r="S82" s="69"/>
+      <c r="T82" s="69"/>
+      <c r="U82" s="69"/>
+      <c r="V82" s="69"/>
+      <c r="W82" s="69"/>
+      <c r="X82" s="71"/>
+      <c r="Y82" s="71"/>
+      <c r="Z82" s="71"/>
+      <c r="AA82" s="76"/>
+      <c r="AB82" s="77"/>
+      <c r="AC82" s="77"/>
+      <c r="AD82" s="77"/>
+      <c r="AE82" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="F3:AC3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="O4:X4"/>
-    <mergeCell ref="Y4:AC4"/>
-    <mergeCell ref="C2:E3"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="G24:N24"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="G26:N26"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="G31:N31"/>
-    <mergeCell ref="G32:N32"/>
-    <mergeCell ref="G35:N35"/>
-    <mergeCell ref="G37:N37"/>
-    <mergeCell ref="G38:N38"/>
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="G40:N40"/>
-    <mergeCell ref="G41:N41"/>
-    <mergeCell ref="G42:N42"/>
-    <mergeCell ref="G44:N44"/>
-    <mergeCell ref="G46:N46"/>
-    <mergeCell ref="G47:N47"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="O71:O76"/>
-    <mergeCell ref="P71:P76"/>
-    <mergeCell ref="Q71:Q76"/>
-    <mergeCell ref="R71:R76"/>
-    <mergeCell ref="S71:S76"/>
-    <mergeCell ref="T71:T76"/>
-    <mergeCell ref="U71:U76"/>
-    <mergeCell ref="V71:V76"/>
-    <mergeCell ref="W71:W76"/>
-    <mergeCell ref="X71:X76"/>
-    <mergeCell ref="Y71:AC76"/>
-    <mergeCell ref="F71:N76"/>
+  <mergeCells count="94">
+    <mergeCell ref="P12:X12"/>
+    <mergeCell ref="P17:X17"/>
+    <mergeCell ref="Q54:X54"/>
+    <mergeCell ref="Q55:X55"/>
+    <mergeCell ref="Q56:X56"/>
+    <mergeCell ref="Q57:X57"/>
+    <mergeCell ref="Q61:X61"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="S72:T72"/>
+    <mergeCell ref="S73:X73"/>
+    <mergeCell ref="S74:X74"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="Q44:X44"/>
+    <mergeCell ref="Q40:X40"/>
+    <mergeCell ref="Q45:X45"/>
+    <mergeCell ref="Q46:X46"/>
+    <mergeCell ref="Q47:X47"/>
+    <mergeCell ref="Q48:X48"/>
+    <mergeCell ref="Q49:X49"/>
+    <mergeCell ref="Q51:X51"/>
+    <mergeCell ref="Q52:X52"/>
+    <mergeCell ref="Q53:X53"/>
+    <mergeCell ref="S62:X62"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="AA77:AE82"/>
+    <mergeCell ref="F77:N82"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="P13:Q13"/>
@@ -3996,30 +4371,57 @@
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="P12:Q12"/>
     <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
     <mergeCell ref="Q26:R26"/>
     <mergeCell ref="Q27:R27"/>
     <mergeCell ref="R29:S29"/>
     <mergeCell ref="R30:S30"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Q44:T44"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="S62:T62"/>
-    <mergeCell ref="Q45:T45"/>
-    <mergeCell ref="Q46:T46"/>
-    <mergeCell ref="Q47:T47"/>
-    <mergeCell ref="Q48:T48"/>
-    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="T77:T82"/>
+    <mergeCell ref="U77:U82"/>
+    <mergeCell ref="V77:V82"/>
+    <mergeCell ref="W77:W82"/>
+    <mergeCell ref="Z77:Z82"/>
+    <mergeCell ref="X77:X82"/>
+    <mergeCell ref="Y77:Y82"/>
+    <mergeCell ref="O77:O82"/>
+    <mergeCell ref="P77:P82"/>
+    <mergeCell ref="Q77:Q82"/>
+    <mergeCell ref="R77:R82"/>
+    <mergeCell ref="S77:S82"/>
+    <mergeCell ref="G46:N46"/>
+    <mergeCell ref="G47:N47"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="G40:N40"/>
+    <mergeCell ref="G41:N41"/>
+    <mergeCell ref="G42:N42"/>
+    <mergeCell ref="G44:N44"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="G32:N32"/>
+    <mergeCell ref="G35:N35"/>
+    <mergeCell ref="G37:N37"/>
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="G30:N30"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="G24:N24"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="O2:AB2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="F3:AE3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="AA4:AE4"/>
+    <mergeCell ref="C2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
